--- a/puppeteer/빅아그네스_list.xlsx
+++ b/puppeteer/빅아그네스_list.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F365"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,15 +439,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F2" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3194548/31945489623.20220421173917.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3194548/31945489623.20220421173917.jpg?type=f640</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>빅아그네스 카퍼스퍼 HV UL4 텐트 3-4인용</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
+        <v>빅아그네스 타이거 월 UL2 텐트 2인용</v>
+      </c>
+      <c r="B3">
+        <v>1130</v>
       </c>
       <c r="C3" t="str">
         <v>big4</v>
@@ -459,15 +459,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F3" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2252144/22521447320.20200417182232.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5023842/50238425619.20240909150237.jpg?type=f640</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>빅아그네스 가드 스테이션 8 쉘터 탄</v>
+        <v>빅아그네스 카퍼 스퍼 HV UL2 LONG 텐트 ESMXU00454 2인용</v>
       </c>
       <c r="B4">
-        <v>10320</v>
+        <v>1450</v>
       </c>
       <c r="C4" t="str">
         <v>big4</v>
@@ -479,15 +479,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F4" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5280119/52801191074.20250204174059.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5190471/51904713620.20241212155300.jpg?type=f640</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>빅아그네스 블랙테일 3 3인용 그린</v>
+        <v>빅아그네스 카퍼 스퍼 HV UL2 텐트 2인용 올리브그린</v>
       </c>
       <c r="B5">
-        <v>2580</v>
+        <v>1420</v>
       </c>
       <c r="C5" t="str">
         <v>big4</v>
@@ -499,15 +499,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F5" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5312425/53124257636.20250220163310.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5319002/53190021697.20250224115457.jpg?type=f640</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>빅아그네스 타이거 월 UL2 텐트 2인용</v>
+        <v>빅아그네스 가드 스테이션 8 쉘터 탄</v>
       </c>
       <c r="B6">
-        <v>1130</v>
+        <v>10320</v>
       </c>
       <c r="C6" t="str">
         <v>big4</v>
@@ -519,15 +519,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F6" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5023842/50238425619.20240909150237.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5280119/52801191074.20250204174059.jpg?type=f640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>빅아그네스 블랙테일 호텔 2 텐트 ESKXU00687 2인용</v>
+        <v>빅아그네스 와이오밍 트레일 4 ESMXU00489 4인용</v>
       </c>
       <c r="B7">
-        <v>2780</v>
+        <v>10120</v>
       </c>
       <c r="C7" t="str">
         <v>big4</v>
@@ -539,15 +539,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F7" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5190471/51904710619.20241212153339.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3381883/33818837620.20220802150641.jpg?type=f640</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>빅아그네스 빅 식스 캠프 체어 ESJXU00223</v>
+        <v>빅아그네스 미카 베이신 캠프 체어</v>
       </c>
       <c r="B8">
-        <v>1450</v>
+        <v>992</v>
       </c>
       <c r="C8" t="str">
         <v>furniture</v>
@@ -559,15 +559,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F8" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2620479/26204799533.20210302113602.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3194556/31945563622.20220421174824.jpg?type=f640</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL2 LONG 텐트 ESMXU00454 2인용</v>
+        <v>빅아그네스 블랙테일 호텔 2 텐트 ESKXU00687 2인용</v>
       </c>
       <c r="B9">
-        <v>1450</v>
+        <v>2780</v>
       </c>
       <c r="C9" t="str">
         <v>big4</v>
@@ -579,7 +579,7 @@
         <v>빅아그네스</v>
       </c>
       <c r="F9" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5190471/51904713620.20241212155300.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5190471/51904710619.20241212153339.jpg?type=f640</v>
       </c>
     </row>
     <row r="10">
@@ -599,15 +599,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F10" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4794704/47947042620.20240524142412.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4794704/47947042620.20240524142412.jpg?type=f640</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>빅아그네스 스카이라인 UL 스툴</v>
+        <v>빅아그네스 빅 식스 캠프 체어 ESJXU00223</v>
       </c>
       <c r="B11">
-        <v>510</v>
+        <v>1450</v>
       </c>
       <c r="C11" t="str">
         <v>furniture</v>
@@ -619,35 +619,35 @@
         <v>빅아그네스</v>
       </c>
       <c r="F11" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4906646/49066465618.20240711092953.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2620479/26204799533.20210302113602.jpg?type=f640</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>빅아그네스 블랙테일 2 호텔 바이크팩 텐트 ESMXU00478 2인용</v>
+        <v>빅아그네스 스카이라인 UL 스툴</v>
       </c>
       <c r="B12">
-        <v>3030</v>
+        <v>510</v>
       </c>
       <c r="C12" t="str">
-        <v>big4</v>
+        <v>furniture</v>
       </c>
       <c r="D12" t="str">
-        <v>tent</v>
+        <v>chair</v>
       </c>
       <c r="E12" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F12" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5190438/51904384619.20241212154643.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4906646/49066465618.20240711092953.jpg?type=f640</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL2 텐트 2인용 오렌지</v>
+        <v>빅아그네스 블랙테일 2 호텔 바이크팩 텐트 ESMXU00478 2인용</v>
       </c>
       <c r="B13">
-        <v>1420</v>
+        <v>3030</v>
       </c>
       <c r="C13" t="str">
         <v>big4</v>
@@ -659,15 +659,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F13" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5319002/53190021684.20250224115254.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5190438/51904384619.20241212154643.jpg?type=f640</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL3 LONG 텐트 3인용</v>
-      </c>
-      <c r="B14">
-        <v>1790</v>
+        <v>빅아그네스 카퍼스퍼 HV UL4 텐트 3-4인용</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
       </c>
       <c r="C14" t="str">
         <v>big4</v>
@@ -679,15 +679,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F14" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5192318/51923186622.20241213171923.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2252144/22521447320.20200417182232.jpg?type=f640</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>빅아그네스 와이오밍 트레일 4 ESMXU00489 4인용</v>
+        <v>빅아그네스 솔트 크릭 SL 2 텐트 2인용</v>
       </c>
       <c r="B15">
-        <v>10120</v>
+        <v>1840</v>
       </c>
       <c r="C15" t="str">
         <v>big4</v>
@@ -699,15 +699,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F15" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3381883/33818837620.20220802150641.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5116111/51161111622.20241101133829.jpg?type=f640</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>빅아그네스 타이거 월 UL2 바이크 팩 솔루션 다이 텐트 2인용</v>
+        <v>빅아그네스 쉴드 2 텐트 2인용</v>
       </c>
       <c r="B16">
-        <v>1330</v>
+        <v>1700</v>
       </c>
       <c r="C16" t="str">
         <v>big4</v>
@@ -719,15 +719,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F16" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5192317/51923175620.20241213171002.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2451272/24512721522.20201019125725.jpg?type=f640</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL2 1-2인용</v>
-      </c>
-      <c r="B17" t="str">
-        <v/>
+        <v>빅아그네스 타이거 월 UL2 바이크 팩 솔루션 다이 텐트 2인용</v>
+      </c>
+      <c r="B17">
+        <v>1330</v>
       </c>
       <c r="C17" t="str">
         <v>big4</v>
@@ -739,15 +739,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F17" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2252090/22520903911.20200417170824.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5192317/51923175620.20241213171002.jpg?type=f640</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>빅아그네스 솔트 크릭 SL 2 텐트 2인용</v>
-      </c>
-      <c r="B18">
-        <v>1840</v>
+        <v>빅아그네스 카퍼 스퍼 HV UL2 1-2인용</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
       </c>
       <c r="C18" t="str">
         <v>big4</v>
@@ -759,7 +759,7 @@
         <v>빅아그네스</v>
       </c>
       <c r="F18" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5116111/51161111622.20241101133829.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2252090/22520903911.20200417170824.jpg?type=f640</v>
       </c>
     </row>
     <row r="19">
@@ -779,15 +779,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F19" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3545627/35456270618.20221026115823.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3545627/35456270618.20221026115823.jpg?type=f640</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>빅아그네스 배틀 마운틴 3 텐트 ESJXU00281 3인용</v>
-      </c>
-      <c r="B20">
-        <v>4000</v>
+        <v>빅아그네스 타이거 월 UL1 텐트 ESKXU00678 1인용</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
       </c>
       <c r="C20" t="str">
         <v>big4</v>
@@ -799,35 +799,35 @@
         <v>빅아그네스</v>
       </c>
       <c r="F20" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2749054/27490542522.20210608111324.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3822139/38221399624.20230224115524.jpg?type=f640</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>빅아그네스 미카 베이신 캠프 체어</v>
+        <v>빅아그네스 빅 하우스 4 텐트 4인용</v>
       </c>
       <c r="B21">
-        <v>992</v>
+        <v>5840</v>
       </c>
       <c r="C21" t="str">
-        <v>furniture</v>
+        <v>big4</v>
       </c>
       <c r="D21" t="str">
-        <v>chair</v>
+        <v>tent</v>
       </c>
       <c r="E21" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F21" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3194556/31945563622.20220421174824.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5192318/51923184619.20241213173205.jpg?type=f640</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>빅아그네스 쉴드 2 텐트 2인용</v>
-      </c>
-      <c r="B22">
-        <v>1700</v>
+        <v>빅아그네스 블랙테일 2 텐트 2인용</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
       </c>
       <c r="C22" t="str">
         <v>big4</v>
@@ -839,35 +839,35 @@
         <v>빅아그네스</v>
       </c>
       <c r="F22" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2451272/24512721522.20201019125725.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2632387/26323875522.20210311174952.jpg?type=f640</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>빅아그네스 빅 하우스 4 텐트 4인용</v>
+        <v>빅아그네스 인슐레이티드 캠프 체어 커버 미카 베이신 캠프 체어</v>
       </c>
       <c r="B23">
-        <v>5840</v>
+        <v>255</v>
       </c>
       <c r="C23" t="str">
-        <v>big4</v>
+        <v>furniture</v>
       </c>
       <c r="D23" t="str">
-        <v>tent</v>
+        <v>chair</v>
       </c>
       <c r="E23" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F23" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5192318/51923184619.20241213173205.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5148623/51486239619.20241119170748.jpg?type=f640</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>빅아그네스 인슐레이티드 캠프 체어 커버 미카 베이신 캠프 체어</v>
+        <v>빅아그네스 인슐레이티드 캠프 체어 커버 스카이라인 UL 체어</v>
       </c>
       <c r="B24">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C24" t="str">
         <v>furniture</v>
@@ -879,15 +879,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F24" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5148623/51486239619.20241119170748.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5148593/51485931622.20241119165648.jpg?type=f640</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>빅아그네스 인슐레이티드 캠프 체어 커버 스카이라인 UL 체어</v>
+        <v>빅아그네스 인슐레이티드 캠프 체어 커버 빅 식스 캠프 체어</v>
       </c>
       <c r="B25">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="C25" t="str">
         <v>furniture</v>
@@ -899,15 +899,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F25" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5148593/51485931622.20241119165648.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5148514/51485144624.20241119171239.jpg?type=f640</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>빅아그네스 인슐레이티드 캠프 체어 커버 빅 식스 캠프 체어</v>
+        <v>빅아그네스 빅 식스 암체어</v>
       </c>
       <c r="B26">
-        <v>340</v>
+        <v>1870</v>
       </c>
       <c r="C26" t="str">
         <v>furniture</v>
@@ -919,35 +919,35 @@
         <v>빅아그네스</v>
       </c>
       <c r="F26" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5148514/51485144624.20241119171239.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3278943/32789437623.20220607155058.jpg?type=f640</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>빅아그네스 빅 식스 암체어</v>
+        <v>빅아그네스 와이오밍 트레일 2 ESMXU00488 2인용</v>
       </c>
       <c r="B27">
-        <v>1870</v>
+        <v>5560</v>
       </c>
       <c r="C27" t="str">
-        <v>furniture</v>
+        <v>big4</v>
       </c>
       <c r="D27" t="str">
-        <v>chair</v>
+        <v>tent</v>
       </c>
       <c r="E27" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F27" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3278943/32789437623.20220607155058.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3381995/33819951618.20220802152313.jpg?type=f640</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>빅아그네스 와이오밍 트레일 2 ESMXU00488 2인용</v>
-      </c>
-      <c r="B28">
-        <v>5560</v>
+        <v>빅아그네스 가드 스테이션 4 ESMXU00692 4인용</v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
       </c>
       <c r="C28" t="str">
         <v>big4</v>
@@ -959,15 +959,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F28" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3381995/33819951618.20220802152313.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3907172/39071729619.20230331162930.jpg?type=f640</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>빅아그네스 가드 스테이션 4 ESMXU00692 4인용</v>
-      </c>
-      <c r="B29" t="str">
-        <v/>
+        <v>빅아그네스 도그 하우스4 4인용</v>
+      </c>
+      <c r="B29">
+        <v>3910</v>
       </c>
       <c r="C29" t="str">
         <v>big4</v>
@@ -979,55 +979,55 @@
         <v>빅아그네스</v>
       </c>
       <c r="F29" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3907172/39071729619.20230331162930.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3194712/31947127618.20220421180629.jpg?type=f640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>빅아그네스 솔트 크릭 SL3 ESKXU00681 3인용</v>
+        <v>빅아그네스 트래쉬 캔 7L EBMXU00022</v>
       </c>
       <c r="B30" t="str">
         <v/>
       </c>
       <c r="C30" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D30" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E30" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F30" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2284900/22849007430.20200513161651.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3402527/34025271761.20231220035249.jpg?type=f640</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>빅아그네스 카퍼스퍼 HV UL3 텐트 2-3인용</v>
-      </c>
-      <c r="B31" t="str">
-        <v/>
+        <v>빅아그네스 골드 캠프 UL 5 타프 ESNXU00331</v>
+      </c>
+      <c r="B31">
+        <v>1470</v>
       </c>
       <c r="C31" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D31" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E31" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F31" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2252150/22521507520.20200417182610.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5148649/51486490619.20241119172501.jpg?type=f640</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>빅아그네스 타이거 월 UL1 텐트 ESKXU00678 1인용</v>
-      </c>
-      <c r="B32" t="str">
-        <v/>
+        <v>빅아그네스 블랙테일 3 3인용 그린</v>
+      </c>
+      <c r="B32">
+        <v>2580</v>
       </c>
       <c r="C32" t="str">
         <v>big4</v>
@@ -1039,135 +1039,135 @@
         <v>빅아그네스</v>
       </c>
       <c r="F32" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3822139/38221399624.20230224115524.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5312425/53124257636.20250220163310.jpg?type=f640</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>빅아그네스 도그 하우스4 4인용</v>
-      </c>
-      <c r="B33">
-        <v>3910</v>
+        <v>빅아그네스 쉴드2 풋프린트 ESKXU00278</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
       </c>
       <c r="C33" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D33" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E33" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F33" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3194712/31947127618.20220421180629.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3573035/35730351393.20221109164318.jpg?type=f640</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>빅아그네스 블랙테일 3 호텔 ESKXU00688 3인용</v>
-      </c>
-      <c r="B34" t="str">
-        <v/>
+        <v>빅아그네스 킹스 캐니언 UL 퀼트 침낭</v>
+      </c>
+      <c r="B34">
+        <v>425</v>
       </c>
       <c r="C34" t="str">
         <v>big4</v>
       </c>
       <c r="D34" t="str">
-        <v>tent</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E34" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F34" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2649986/26499860522.20210324175251.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2297491/22974916491.20200527170421.jpg?type=f640</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>빅아그네스 블랙테일 2 텐트 2인용</v>
+        <v>빅아그네스 카퍼 스퍼 3 플래티넘 풋프린트 ESJXU00469</v>
       </c>
       <c r="B35" t="str">
         <v/>
       </c>
       <c r="C35" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D35" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E35" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F35" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2632387/26323875522.20210311174952.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5053956/50539564758.20240928213328.jpg?type=f640</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>빅아그네스 타이거 월 UL3 바이크팩 솔루션 다이 텐트 ESMXU00464 3인용</v>
+        <v>빅아그네스 우드척 캠프 테이블 ESJXU00234 블랙</v>
       </c>
       <c r="B36">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="C36" t="str">
-        <v>big4</v>
+        <v>furniture</v>
       </c>
       <c r="D36" t="str">
-        <v>tent</v>
+        <v>table</v>
       </c>
       <c r="E36" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F36" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5192337/51923374619.20241213172733.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5280125/52801255420.20250204175047.jpg?type=f640</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL3 EJTHVCSG317 텐트 3인용</v>
+        <v>빅아그네스 풋프린트 와이오밍 트레일 2 ESNXU00490</v>
       </c>
       <c r="B37" t="str">
         <v/>
       </c>
       <c r="C37" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D37" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E37" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F37" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2383803/23838038522.20200820144040.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3321174/33211740194.20220630142656.jpg?type=f640</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>빅아그네스 트래쉬 캔 7L EBMXU00022</v>
-      </c>
-      <c r="B38" t="str">
-        <v/>
+        <v>빅아그네스 플루톤 UL 4℃ 롱 ESKXU00215</v>
+      </c>
+      <c r="B38">
+        <v>510</v>
       </c>
       <c r="C38" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D38" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E38" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F38" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3402527/34025271761.20231220035249.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298281/32982818618.20220616144626.jpg?type=f640</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>빅아그네스 골드 캠프 UL 5 타프 ESNXU00331</v>
-      </c>
-      <c r="B39">
-        <v>1470</v>
+        <v>빅아그네스 풋프린트 블랙테일 2 호텔 ESKXU00689</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
       </c>
       <c r="C39" t="str">
         <v>etc</v>
@@ -1179,32 +1179,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F39" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5148649/51486490619.20241119172501.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5109718/51097185966.20241029183657.jpg?type=f640</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>빅아그네스 킹스 캐니언 UL 퀼트 침낭</v>
-      </c>
-      <c r="B40">
-        <v>425</v>
+        <v>빅아그네스 풋 프린트 타이거 월 UL2 MTNGLO ESNXU00130</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
       </c>
       <c r="C40" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D40" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E40" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F40" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2297491/22974916491.20200527170421.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3321305/33213051028.20220630154434.jpg?type=f640</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>빅아그네스 쉴드2 풋프린트 ESKXU00278</v>
+        <v>빅아그네스 풋프린트 스파이서 피크 4</v>
       </c>
       <c r="B41" t="str">
         <v/>
@@ -1219,52 +1219,52 @@
         <v>빅아그네스</v>
       </c>
       <c r="F41" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3573035/35730351393.20221109164318.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3660943/36609436620.20221218211806.jpg?type=f640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>빅아그네스 인슐레이티드 에어 코어 울트라 25X72 와이드 레귤러 ESMXU00233</v>
+        <v>빅아그네스 로스트 레인저 UL 3N1 -18℃ ESMXU00243</v>
       </c>
       <c r="B42">
-        <v>794</v>
+        <v>1330</v>
       </c>
       <c r="C42" t="str">
         <v>big4</v>
       </c>
       <c r="D42" t="str">
-        <v>mat</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E42" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F42" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5150333/51503334626.20241120150136.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4418313/44183133622.20231122124558.jpg?type=f640</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>빅아그네스 카퍼 스퍼 3 플래티넘 풋프린트 ESJXU00469</v>
-      </c>
-      <c r="B43" t="str">
-        <v/>
+        <v>빅아그네스 슈가로프 캠프 텐트</v>
+      </c>
+      <c r="B43">
+        <v>7290</v>
       </c>
       <c r="C43" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D43" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E43" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F43" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5053956/50539564758.20240928213328.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5192338/51923389620.20241213164903.jpg?type=f640</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>빅아그네스 풋프린트 블랙테일 2 호텔 ESKXU00689</v>
+        <v>빅아그네스 라피드 필로우 ESNXU00004</v>
       </c>
       <c r="B44" t="str">
         <v/>
@@ -1279,27 +1279,27 @@
         <v>빅아그네스</v>
       </c>
       <c r="F44" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5109718/51097185966.20241029183657.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3878679/38786798295.20230320195123.jpg?type=f640</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>빅아그네스 우드척 캠프 테이블 ESJXU00234 블랙</v>
+        <v>빅아그네스 인슐레이티드 에어 코어 울트라 25X72 와이드 레귤러 ESMXU00233</v>
       </c>
       <c r="B45">
-        <v>900</v>
+        <v>794</v>
       </c>
       <c r="C45" t="str">
-        <v>furniture</v>
+        <v>big4</v>
       </c>
       <c r="D45" t="str">
-        <v>table</v>
+        <v>mat</v>
       </c>
       <c r="E45" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F45" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5280125/52801255420.20250204175047.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5150333/51503334626.20241120150136.jpg?type=f640</v>
       </c>
     </row>
     <row r="46">
@@ -1319,32 +1319,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F46" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3643104/36431044084.20221210203444.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3643104/36431044084.20221210203444.jpg?type=f640</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>빅아그네스 풋프린트 캠프 UL 5 ESNXU00470</v>
-      </c>
-      <c r="B47" t="str">
-        <v/>
+        <v>빅아그네스 슬리핑 백 하프 라이너 ESKXU00676</v>
+      </c>
+      <c r="B47">
+        <v>283</v>
       </c>
       <c r="C47" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D47" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E47" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F47" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3874425/38744259572.20230318151757.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3297947/32979477619.20220616123823.jpg?type=f640</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>빅아그네스 풋프린트 와이오밍 트레일 2 ESNXU00490</v>
+        <v>빅아그네스 풋프린트 도그 하우스 4</v>
       </c>
       <c r="B48" t="str">
         <v/>
@@ -1359,12 +1359,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F48" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3321174/33211740194.20220630142656.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3590690/35906906242.20221117110108.jpg?type=f640</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>빅아그네스 풋프린트 스파이서 피크 4</v>
+        <v>빅아그네스 풋프린트 카퍼스퍼 HV UL 2 MTNGLO ESNXU00464</v>
       </c>
       <c r="B49" t="str">
         <v/>
@@ -1379,32 +1379,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F49" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3660943/36609436620.20221218211806.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4857509/48575090789.20240620140435.jpg?type=f640</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>빅아그네스 슈가로프 캠프 텐트</v>
-      </c>
-      <c r="B50">
-        <v>7290</v>
+        <v>빅아그네스 마운틴글로우 텐트 캠프 라이트 - ESJXU00037</v>
+      </c>
+      <c r="B50" t="str">
+        <v/>
       </c>
       <c r="C50" t="str">
-        <v>big4</v>
+        <v>lantern</v>
       </c>
       <c r="D50" t="str">
-        <v>tent</v>
+        <v>lantern</v>
       </c>
       <c r="E50" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F50" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5192338/51923389620.20241213164903.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4309054/43090547274.20231011015946.jpg?type=f640</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>빅아그네스 풋 프린트 타이거 월 UL2 MTNGLO ESNXU00130</v>
+        <v>빅아그네스 풋프린트 와이오밍 트레일 4 ESMXU00491</v>
       </c>
       <c r="B51" t="str">
         <v/>
@@ -1419,52 +1419,52 @@
         <v>빅아그네스</v>
       </c>
       <c r="F51" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3321305/33213051028.20220630154434.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3321094/33210941719.20220630133533.jpg?type=f640</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>빅아그네스 투 트랙 와이드 롱 ESMXU00334 25 x 78</v>
-      </c>
-      <c r="B52">
-        <v>879</v>
+        <v>빅아그네스 블랙테일 4 풋프린트 ESKXU00691</v>
+      </c>
+      <c r="B52" t="str">
+        <v/>
       </c>
       <c r="C52" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D52" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E52" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F52" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298348/32983489624.20220616163917.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3593520/35935206842.20240914062237.jpg?type=f640</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>빅아그네스 마운틴글로우 텐트 캠프 라이트 - ESJXU00037</v>
-      </c>
-      <c r="B53" t="str">
-        <v/>
+        <v>빅아그네스 골드 캠프 UL 3 타프</v>
+      </c>
+      <c r="B53">
+        <v>1220</v>
       </c>
       <c r="C53" t="str">
-        <v>lantern</v>
+        <v>etc</v>
       </c>
       <c r="D53" t="str">
-        <v>lantern</v>
+        <v>etc</v>
       </c>
       <c r="E53" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F53" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4309054/43090547274.20231011015946.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4794714/47947149619.20240524141704.jpg?type=f640</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>빅아그네스 풋프린트 도그 하우스 4</v>
+        <v>빅아그네스 빅 하우스4 풋프린트 ESKXU00700</v>
       </c>
       <c r="B54" t="str">
         <v/>
@@ -1479,12 +1479,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F54" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3590690/35906906242.20221117110108.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3591145/35911453816.20221117155522.jpg?type=f640</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>빅아그네스 라피드 필로우 ESNXU00004</v>
+        <v>빅아그네스 풋프린트 캠프 UL 5 ESNXU00470</v>
       </c>
       <c r="B55" t="str">
         <v/>
@@ -1499,112 +1499,112 @@
         <v>빅아그네스</v>
       </c>
       <c r="F55" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3878679/38786798295.20230320195123.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3874425/38744259572.20230318151757.jpg?type=f640</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>빅아그네스 플루톤 UL 4℃ 롱 ESKXU00215</v>
-      </c>
-      <c r="B56">
-        <v>510</v>
+        <v>빅아그네스 마운틴글로우 텐트 캠프 라이트 - Green ESJXU00038</v>
+      </c>
+      <c r="B56" t="str">
+        <v/>
       </c>
       <c r="C56" t="str">
-        <v>big4</v>
+        <v>lantern</v>
       </c>
       <c r="D56" t="str">
-        <v>sleeping_bag</v>
+        <v>lantern</v>
       </c>
       <c r="E56" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F56" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298281/32982818618.20220616144626.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2212069/22120694403.20221222232625.jpg?type=f640</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>빅아그네스 에어 코어 울트라 와이드 롱 ESKXU00303 25 x 78</v>
+        <v>빅아그네스 토치라이트 UL 20 침낭 ESKXU00673</v>
       </c>
       <c r="B57">
-        <v>709</v>
+        <v>480</v>
       </c>
       <c r="C57" t="str">
         <v>big4</v>
       </c>
       <c r="D57" t="str">
-        <v>mat</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E57" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F57" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298349/32983492623.20220616165016.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2922714/29227147619.20211014101745.jpg?type=f640</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>빅아그네스 풋프린트 카퍼스퍼 HV UL 2 MTNGLO ESNXU00464</v>
-      </c>
-      <c r="B58" t="str">
-        <v/>
+        <v>빅아그네스 에어 코어 울트라 레귤러 ESKXU00300 20 x 72</v>
+      </c>
+      <c r="B58">
+        <v>566</v>
       </c>
       <c r="C58" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D58" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E58" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F58" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4857509/48575090789.20240620140435.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298393/32983930619.20220616171214.jpg?type=f640</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>빅아그네스 로스트 레인저 UL 3N1 -18℃ ESMXU00243</v>
-      </c>
-      <c r="B59">
-        <v>1330</v>
+        <v>빅아그네스 베스티블 쉴드 2 ESNXU00279</v>
+      </c>
+      <c r="B59" t="str">
+        <v/>
       </c>
       <c r="C59" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D59" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E59" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F59" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4418313/44183133622.20231122124558.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2418708/24187082004.20240118062833.jpg?type=f640</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>빅아그네스 인슐레이티드 에어 코어 울트라 ESLXU00302 50 x 78</v>
-      </c>
-      <c r="B60">
-        <v>1700</v>
+        <v>빅아그네스 기어 로프트 - SQUARE ESJXU00507</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
       </c>
       <c r="C60" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D60" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E60" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F60" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298349/32983492621.20220616160148.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2212052/22120523938.20231011185617.jpg?type=f640</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>빅아그네스 풋프린트 와이오밍 트레일 4 ESMXU00491</v>
+        <v>빅아그네스 풋프린트 슈가로프 캠프</v>
       </c>
       <c r="B61" t="str">
         <v/>
@@ -1619,12 +1619,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F61" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3321094/33210941719.20220630133533.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2348850/23488507739.20200717170207.jpg?type=f640</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>빅아그네스 블랙테일 4 풋프린트 ESKXU00691</v>
+        <v>빅아그네스 카퍼 스퍼 HV UL 4 전용 풋프린트 ESKXU00473</v>
       </c>
       <c r="B62" t="str">
         <v/>
@@ -1639,75 +1639,75 @@
         <v>빅아그네스</v>
       </c>
       <c r="F62" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3593520/35935206842.20240914062237.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3572580/35725806047.20221109110641.jpg?type=f640</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>빅아그네스 빅 하우스4 풋프린트 ESKXU00700</v>
+        <v>빅아그네스 MTNGLO 텐트 캠프 라이트 감성 캠핑 랜턴 ESJXU00036</v>
       </c>
       <c r="B63" t="str">
         <v/>
       </c>
       <c r="C63" t="str">
-        <v>etc</v>
+        <v>lantern</v>
       </c>
       <c r="D63" t="str">
-        <v>etc</v>
+        <v>lantern</v>
       </c>
       <c r="E63" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F63" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3591145/35911453816.20221117155522.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3170709/31707095290.20220410151605.jpg?type=f640</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>빅아그네스 에어 코어 울트라 레귤러 ESKXU00300 20 x 72</v>
-      </c>
-      <c r="B64">
-        <v>566</v>
+        <v>빅아그네스 풋프린트 캠프5 ESNXU00471</v>
+      </c>
+      <c r="B64" t="str">
+        <v/>
       </c>
       <c r="C64" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D64" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E64" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F64" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298393/32983930619.20220616171214.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3874485/38744850386.20230318161226.jpg?type=f640</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>빅아그네스 마운틴글로우 텐트 캠프 라이트 - Green ESJXU00038</v>
+        <v>빅아그네스 풋프린트 솔트 크릭 2 ESNXU00472</v>
       </c>
       <c r="B65" t="str">
         <v/>
       </c>
       <c r="C65" t="str">
-        <v>lantern</v>
+        <v>etc</v>
       </c>
       <c r="D65" t="str">
-        <v>lantern</v>
+        <v>etc</v>
       </c>
       <c r="E65" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F65" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2212069/22120694403.20221222232625.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3880580/38805809580.20230321161658.jpg?type=f640</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>빅아그네스 투 트랙 레귤러 ESJXU00333 20 x 72</v>
+        <v>빅아그네스 투 트랙 와이드 롱 ESMXU00334 25 x 78</v>
       </c>
       <c r="B66">
-        <v>680</v>
+        <v>879</v>
       </c>
       <c r="C66" t="str">
         <v>big4</v>
@@ -1719,12 +1719,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F66" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298392/32983926619.20220616165946.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298348/32983489624.20220616163917.jpg?type=f640</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>빅아그네스 풋프린트 슈가로프 캠프</v>
+        <v>빅아그네스 BIG AGNES Q-코어 듀럭스 필로우 ESJXU00033</v>
       </c>
       <c r="B67" t="str">
         <v/>
@@ -1739,12 +1739,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F67" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2348850/23488507739.20200717170207.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5126442/51264423130.20241106225317.jpg?type=f640</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL 4 전용 풋프린트 ESKXU00473</v>
+        <v>빅아그네스 펌프하우스 울트라 ESJXU00322</v>
       </c>
       <c r="B68" t="str">
         <v/>
@@ -1759,12 +1759,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F68" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3572580/35725806047.20221109110641.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3588229/35882292510.20240418023728.jpg?type=f640</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>빅아그네스 베스티블 쉴드 2 ESNXU00279</v>
+        <v>빅아그네스 MTNGLO 기어로프트 - WALL ESKXU00041</v>
       </c>
       <c r="B69" t="str">
         <v/>
@@ -1779,12 +1779,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F69" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2418708/24187082004.20240118062833.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2907729/29077291681.20211002223359.jpg?type=f640</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>빅아그네스 기어 로프트 - SQUARE ESJXU00507</v>
+        <v>빅아그네스 풋프린트 블랙테일 2 호텔 바이크팩 ESMXU00480</v>
       </c>
       <c r="B70" t="str">
         <v/>
@@ -1799,12 +1799,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F70" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2212052/22120523938.20231011185617.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4488550/44885503091.20231226174850.jpg?type=f640</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>빅아그네스 MTNGLO 기어로프트 - WALL ESKXU00041</v>
+        <v>빅아그네스 풋프린트 캠프 UL 3 - 2023 ESNXU00468</v>
       </c>
       <c r="B71" t="str">
         <v/>
@@ -1819,12 +1819,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F71" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2907729/29077291681.20211002223359.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3885943/38859435414.20230323215144.jpg?type=f640</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>빅아그네스 펌프하우스 울트라 ESJXU00322</v>
+        <v>빅아그네스 배틀 마운틴 3 전용 풋프린트 ESJXU00283</v>
       </c>
       <c r="B72" t="str">
         <v/>
@@ -1839,47 +1839,47 @@
         <v>빅아그네스</v>
       </c>
       <c r="F72" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3588229/35882292510.20240418023728.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3627238/36272387247.20221203131910.jpg?type=f640</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>빅아그네스 MTNGLO 텐트 캠프 라이트 감성 캠핑 랜턴 ESJXU00036</v>
+        <v>빅아그네스 캠핑 해머 손도끼 ESNXU00005</v>
       </c>
       <c r="B73" t="str">
         <v/>
       </c>
       <c r="C73" t="str">
-        <v>lantern</v>
+        <v>cooking</v>
       </c>
       <c r="D73" t="str">
-        <v>lantern</v>
+        <v>cooking</v>
       </c>
       <c r="E73" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F73" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3170709/31707095290.20220410151605.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4307629/43076297825.20231008120420.jpg?type=f640</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>빅아그네스 풋프린트 캠프5 ESNXU00471</v>
-      </c>
-      <c r="B74" t="str">
-        <v/>
+        <v>빅아그네스 인슐레이티드 에어 코어 울트라 ESLXU00302 50 x 78</v>
+      </c>
+      <c r="B74">
+        <v>1700</v>
       </c>
       <c r="C74" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D74" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E74" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F74" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3874485/38744850386.20230318161226.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298349/32983492621.20220616160148.jpg?type=f640</v>
       </c>
     </row>
     <row r="75">
@@ -1899,7 +1899,7 @@
         <v>빅아그네스</v>
       </c>
       <c r="F75" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4298239/42982392857.20231002220317.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4298239/42982392857.20231002220317.jpg?type=f640</v>
       </c>
     </row>
     <row r="76">
@@ -1919,12 +1919,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F76" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3570777/35707777637.20221108110415.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3570777/35707777637.20221108110415.jpg?type=f640</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>빅아그네스 풋프린트 솔트 크릭 2 ESNXU00472</v>
+        <v>빅아그네스 빅 하우스6 풋프린트 ESKXU00701</v>
       </c>
       <c r="B77" t="str">
         <v/>
@@ -1939,12 +1939,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F77" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3880580/38805809580.20230321161658.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5141772/51417725776.20241115224406.jpg?type=f640</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>빅아그네스 BIG AGNES Q-코어 듀럭스 필로우 ESJXU00033</v>
+        <v>빅아그네스 풋프린트 골든 캠프 3 ESNXU00469</v>
       </c>
       <c r="B78" t="str">
         <v/>
@@ -1959,12 +1959,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F78" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5126442/51264423130.20241106225317.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3876090/38760903524.20230319121659.jpg?type=f640</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>빅아그네스 풋프린트 블랙테일 2 호텔 바이크팩 ESMXU00480</v>
+        <v>빅아그네스 풋 프린트 타이거 월 UL 1 솔루션 다이 MTNGLO 2023 ESNXU00129</v>
       </c>
       <c r="B79" t="str">
         <v/>
@@ -1979,12 +1979,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F79" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4488550/44885503091.20231226174850.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3958942/39589423681.20230425163520.jpg?type=f640</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>빅아그네스 풋프린트 캠프 UL 3 - 2023 ESNXU00468</v>
+        <v>빅아그네스 스터프 색 30L ESOXU00815</v>
       </c>
       <c r="B80" t="str">
         <v/>
@@ -1999,12 +1999,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F80" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3885943/38859435414.20230323215144.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4890078/48900788650.20240704035128.jpg?type=f640</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>빅아그네스 배틀 마운틴 3 전용 풋프린트 ESJXU00283</v>
+        <v>빅아그네스 스터프 색 15L ESOXU00813</v>
       </c>
       <c r="B81" t="str">
         <v/>
@@ -2019,52 +2019,52 @@
         <v>빅아그네스</v>
       </c>
       <c r="F81" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3627238/36272387247.20221203131910.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4890383/48903831410.20240704194446.jpg?type=f640</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>빅아그네스 빅 하우스 6 텐트 ESKXU00699 6인용</v>
-      </c>
-      <c r="B82">
-        <v>7460</v>
+        <v>빅아그네스 스터프 색 20L ESOXU00814</v>
+      </c>
+      <c r="B82" t="str">
+        <v/>
       </c>
       <c r="C82" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D82" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E82" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F82" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3194548/31945488625.20220421175809.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4880942/48809429272.20240701051956.jpg?type=f640</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>빅아그네스 캠핑 해머 손도끼 ESNXU00005</v>
+        <v>빅아그네스 스터프 색 15L ESOXU00813</v>
       </c>
       <c r="B83" t="str">
         <v/>
       </c>
       <c r="C83" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="D83" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="E83" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F83" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4307629/43076297825.20231008120420.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4890383/48903831410.20240704194446.jpg?type=f640</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>빅아그네스 빅 하우스6 풋프린트 ESKXU00701</v>
+        <v>빅아그네스 스터프 색 7L ESOXU00811</v>
       </c>
       <c r="B84" t="str">
         <v/>
@@ -2079,12 +2079,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F84" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5141772/51417725776.20241115224406.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4880926/48809268675.20240701102256.jpg?type=f640</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>빅아그네스 풋 프린트 타이거 월 UL 1 솔루션 다이 MTNGLO 2023 ESNXU00129</v>
+        <v>빅아그네스 스터프 색 30L ESOXU00815</v>
       </c>
       <c r="B85" t="str">
         <v/>
@@ -2099,12 +2099,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F85" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3958942/39589423681.20230425163520.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4890078/48900788650.20240704035128.jpg?type=f640</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>빅아그네스 풋프린트 골든 캠프 3 ESNXU00469</v>
+        <v>빅아그네스 컴프레션 스터프 색 10L ESOXU00808</v>
       </c>
       <c r="B86" t="str">
         <v/>
@@ -2119,12 +2119,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F86" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3876090/38760903524.20230319121659.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4881282/48812823969.20240630234252.jpg?type=f640</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>빅아그네스 스터프 색 15L ESOXU00813</v>
+        <v>빅아그네스 바운더리 디럭스 필로우 ESNXU00227</v>
       </c>
       <c r="B87" t="str">
         <v/>
@@ -2139,12 +2139,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F87" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4890383/48903831410.20240704194446.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4121220/41212200383.20230715202610.jpg?type=f640</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>빅아그네스 스터프 색 7L ESOXU00811</v>
+        <v>빅아그네스 컴프레션 스터프 색 20L ESOXU00810</v>
       </c>
       <c r="B88" t="str">
         <v/>
@@ -2159,52 +2159,52 @@
         <v>빅아그네스</v>
       </c>
       <c r="F88" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4880926/48809268675.20240701102256.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4892007/48920078713.20240705072317.jpg?type=f640</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>빅아그네스 스터프 색 30L ESOXU00815</v>
-      </c>
-      <c r="B89" t="str">
-        <v/>
+        <v>빅아그네스 투 트랙 레귤러 ESJXU00333 20 x 72</v>
+      </c>
+      <c r="B89">
+        <v>680</v>
       </c>
       <c r="C89" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D89" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E89" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F89" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4890078/48900788650.20240704035128.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298392/32983926619.20220616165946.jpg?type=f640</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>빅아그네스 바운더리 디럭스 필로우 ESNXU00227</v>
-      </c>
-      <c r="B90" t="str">
-        <v/>
+        <v>빅아그네스 퓨셀 UL 퀼트 ESKXU00675</v>
+      </c>
+      <c r="B90">
+        <v>482</v>
       </c>
       <c r="C90" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D90" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E90" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F90" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4121220/41212200383.20230715202610.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3297942/32979427620.20220616121714.jpg?type=f640</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>빅아그네스 컴프레션 스터프 색 20L ESOXU00810</v>
+        <v>빅아그네스 캠프 5 메쉬 이너 ESNXU00326</v>
       </c>
       <c r="B91" t="str">
         <v/>
@@ -2219,32 +2219,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F91" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4892007/48920078713.20240705072317.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3873662/38736626462.20230318082352.jpg?type=f640</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>빅아그네스 기어 로프트 - TRIANGLE ESKXU00131</v>
+        <v>빅아그네스 MTNGLO 캠프 라이트 랜턴</v>
       </c>
       <c r="B92" t="str">
         <v/>
       </c>
       <c r="C92" t="str">
-        <v>etc</v>
+        <v>lantern</v>
       </c>
       <c r="D92" t="str">
-        <v>etc</v>
+        <v>lantern</v>
       </c>
       <c r="E92" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F92" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3581365/35813656538.20221114083559.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3709956/37099564950.20230110124714.jpg?type=f640</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>빅아그네스 컴프레션 스터프 색 15L ESOXU00809</v>
+        <v>빅아그네스 블랙테일 2 ESKXU00684</v>
       </c>
       <c r="B93" t="str">
         <v/>
@@ -2259,32 +2259,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F93" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4879902/48799025862.20240630114812.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4905286/49052860749.20241103052816.jpg?type=f640</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>빅아그네스 스터프 색 10L ESOXU00812</v>
+        <v>빅아그네스 BigAgnes 기어 로프트 - TRIANGLE</v>
       </c>
       <c r="B94" t="str">
         <v/>
       </c>
       <c r="C94" t="str">
-        <v>etc</v>
+        <v>furniture</v>
       </c>
       <c r="D94" t="str">
-        <v>etc</v>
+        <v>furniture</v>
       </c>
       <c r="E94" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F94" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4881263/48812630572.20240701052514.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4517563/45175637133.20240110222626.jpg?type=f640</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>빅아그네스 스터프 색 20L ESOXU00814</v>
+        <v>빅아그네스 기어 로프트 - TRIANGLE ESKXU00131</v>
       </c>
       <c r="B95" t="str">
         <v/>
@@ -2299,32 +2299,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F95" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4880942/48809429272.20240701051956.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3581365/35813656538.20221114083559.jpg?type=f640</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>빅아그네스 컴프레션 스터프 색 10L ESOXU00808</v>
-      </c>
-      <c r="B96" t="str">
-        <v/>
+        <v>빅아그네스 슬리핑 백 라이너 면 ESJXU00248</v>
+      </c>
+      <c r="B96">
+        <v>411</v>
       </c>
       <c r="C96" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D96" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E96" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F96" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4881282/48812823969.20240630234252.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3297969/32979695618.20220616125647.jpg?type=f640</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>빅아그네스 풋프린트 타이거 월 UL 1</v>
+        <v>빅아그네스 마운틴글로우 기어 로프트 - TRIANGLE ESKXU00039</v>
       </c>
       <c r="B97" t="str">
         <v/>
@@ -2339,12 +2339,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F97" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3568286/35682862454.20221107055109.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3599202/35992020886.20221122011306.jpg?type=f640</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>빅아그네스 풋프린트 스파이서 피크 6</v>
+        <v>빅아그네스 가드 스테이션 8 ACCESSORY BODY ESNXU00487</v>
       </c>
       <c r="B98" t="str">
         <v/>
@@ -2359,72 +2359,72 @@
         <v>빅아그네스</v>
       </c>
       <c r="F98" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3498086/34980869828.20220930131515.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5006970/50069709540.20240831001943.jpg?type=f640</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>빅아그네스 슬리핑 백 라이너 면 ESJXU00248</v>
-      </c>
-      <c r="B99">
-        <v>411</v>
+        <v>빅아그네스 캠프 UL 3 메쉬 이너 ESNXU00328</v>
+      </c>
+      <c r="B99" t="str">
+        <v/>
       </c>
       <c r="C99" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D99" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E99" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F99" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297969/32979695618.20220616125647.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4307629/43076291325.20231008110105.jpg?type=f640</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>빅아그네스 MTNGLO 캠프 라이트 랜턴</v>
+        <v>빅아그네스 BigAgnes 타이거 월 UL1 전용 풋프린트</v>
       </c>
       <c r="B100" t="str">
         <v/>
       </c>
       <c r="C100" t="str">
-        <v>lantern</v>
+        <v>etc</v>
       </c>
       <c r="D100" t="str">
-        <v>lantern</v>
+        <v>etc</v>
       </c>
       <c r="E100" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F100" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3709956/37099564950.20230110124714.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4515347/45153476723.20240109213112.jpg?type=f640</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>빅아그네스 BigAgnes 기어 로프트 - TRIANGLE</v>
+        <v>빅아그네스 풋프린트 타이거 월 UL 1</v>
       </c>
       <c r="B101" t="str">
         <v/>
       </c>
       <c r="C101" t="str">
-        <v>furniture</v>
+        <v>etc</v>
       </c>
       <c r="D101" t="str">
-        <v>furniture</v>
+        <v>etc</v>
       </c>
       <c r="E101" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F101" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4517563/45175637133.20240110222626.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3568286/35682862454.20221107055109.jpg?type=f640</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>빅아그네스 베스티블 쉴드 2</v>
+        <v>빅아그네스 BIG AGNES 빅 아그네스 12 텐트 스테이크 펙 4개 ESJXU00047</v>
       </c>
       <c r="B102" t="str">
         <v/>
@@ -2439,12 +2439,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F102" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4879761/48797617548.20240630133711.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3940617/39406172203.20230415221502.jpg?type=f640</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>빅아그네스 캠프 5 메쉬 이너 ESNXU00326</v>
+        <v>빅아그네스 풋프린트 타이거 월 UL 2 MTNGLO 플래티넘 ESOXU00804</v>
       </c>
       <c r="B103" t="str">
         <v/>
@@ -2459,12 +2459,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F103" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3873662/38736626462.20230318082352.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4890383/48903835612.20240703225055.jpg?type=f640</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>빅아그네스 캠프 5 메쉬 이너</v>
+        <v>빅아그네스 풋프린트 카퍼스퍼 HV UL 1 MTNGLO ESOXU00470</v>
       </c>
       <c r="B104" t="str">
         <v/>
@@ -2479,32 +2479,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F104" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4879747/48797470331.20240630191006.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5026186/50261863915.20240910212416.jpg?type=f640</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>빅아그네스 블랙테일 2 ESKXU00684</v>
-      </c>
-      <c r="B105" t="str">
-        <v/>
+        <v>빅아그네스 배틀 마운틴 3 텐트 ESJXU00281 3인용</v>
+      </c>
+      <c r="B105">
+        <v>4000</v>
       </c>
       <c r="C105" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D105" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E105" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F105" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4905286/49052860749.20241103052816.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2749054/27490542522.20210608111324.jpg?type=f640</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>빅아그네스 캠프 UL 3 메쉬 이너 ESNXU00328</v>
+        <v>빅아그네스 풋프린트 플라이 크릭 HV UL 2 솔루션 다이 ESOXU00123</v>
       </c>
       <c r="B106" t="str">
         <v/>
@@ -2519,92 +2519,92 @@
         <v>빅아그네스</v>
       </c>
       <c r="F106" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4307629/43076291325.20231008110105.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4892494/48924947851.20240705010406.jpg?type=f640</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>빅아그네스 가드 스테이션 8 ACCESSORY BODY ESNXU00487</v>
-      </c>
-      <c r="B107" t="str">
-        <v/>
+        <v>빅아그네스 빅 하우스 6 텐트 ESKXU00699 6인용</v>
+      </c>
+      <c r="B107">
+        <v>7460</v>
       </c>
       <c r="C107" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D107" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E107" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F107" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5006970/50069709540.20240831001943.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3194548/31945488625.20220421175809.jpg?type=f640</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>빅아그네스 풋프린트 타이거 월 UL3 BIKEPACK</v>
-      </c>
-      <c r="B108" t="str">
-        <v/>
+        <v>빅아그네스 빅 하우스 6 텐트 베스티블 ESKXU00703</v>
+      </c>
+      <c r="B108">
+        <v>2009.9999999999998</v>
       </c>
       <c r="C108" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D108" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E108" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F108" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3771163/37711634353.20230205190556.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5190475/51904753618.20241212160335.jpg?type=f640</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>빅아그네스 BigAgnes 타이거 월 UL1 전용 풋프린트</v>
-      </c>
-      <c r="B109" t="str">
-        <v/>
+        <v>빅아그네스 카빈 크릭 -1℃ 침낭 ESJXU00178</v>
+      </c>
+      <c r="B109">
+        <v>1980</v>
       </c>
       <c r="C109" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D109" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E109" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F109" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4515347/45153476723.20240109213112.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3297936/32979361619.20220616094450.jpg?type=f640</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>빅아그네스 마운틴글로우 기어 로프트 - TRIANGLE ESKXU00039</v>
-      </c>
-      <c r="B110" t="str">
-        <v/>
+        <v>빅아그네스 빅 하우스 4 텐트 베스티블</v>
+      </c>
+      <c r="B110">
+        <v>1670</v>
       </c>
       <c r="C110" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D110" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E110" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F110" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3599202/35992020886.20221122011306.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5192318/51923184620.20241213165832.jpg?type=f640</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>빅아그네스 더트 대거 UL 10 텐트 팩 6</v>
+        <v>빅아그네스 BIG AGNES 플라이 크릭 HV UL2 플래티넘 전용 풋프린트 ESJXU00435</v>
       </c>
       <c r="B111" t="str">
         <v/>
@@ -2619,12 +2619,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F111" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3362046/33620466304.20220721174814.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3582953/35829536032.20241103113520.jpg?type=f640</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL3 HV 마운틴 글로우 전용 풋프린트 ESKXU00472</v>
+        <v>빅아그네스 빅 아그네스 기어 로프트 텐트 액세서리 Large Trapezoid</v>
       </c>
       <c r="B112" t="str">
         <v/>
@@ -2639,12 +2639,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F112" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4107216/41072160392.20230709071540.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5292710/52927108599.20250210232010.jpg?type=f640</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>빅아그네스 BIG AGNES 빅 아그네스 12 텐트 스테이크 펙 4개 ESJXU00047</v>
+        <v>빅아그네스 풋프린트 블랙테일 3 호텔 텐트 풋프린트 그라운드시트 방수포</v>
       </c>
       <c r="B113" t="str">
         <v/>
@@ -2659,32 +2659,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F113" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3940617/39406172203.20230415221502.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4758938/47589380223.20240508220344.jpg?type=f640</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>빅아그네스 풋프린트 카퍼스퍼 HV UL 1 MTNGLO ESOXU00470</v>
-      </c>
-      <c r="B114" t="str">
-        <v/>
+        <v>빅아그네스 로스트 레인저 UL 3N1 -9℃ 레귤러 ESMXU00240</v>
+      </c>
+      <c r="B114">
+        <v>992</v>
       </c>
       <c r="C114" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D114" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E114" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F114" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5026186/50261863915.20240910212416.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3297947/32979477620.20220616135903.jpg?type=f640</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>빅아그네스 풋프린트 타이거 월 UL 2 MTNGLO 플래티넘 ESOXU00804</v>
+        <v>빅아그네스 빅 아그네스 캠프 5 UL 풋프린트 텐트</v>
       </c>
       <c r="B115" t="str">
         <v/>
@@ -2699,72 +2699,72 @@
         <v>빅아그네스</v>
       </c>
       <c r="F115" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4890383/48903835612.20240703225055.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5328926/53289269700.20250302011408.jpg?type=f640</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>빅아그네스 빅 하우스 6 텐트 베스티블 ESKXU00703</v>
+        <v>빅아그네스 슬리핑 백 라이너 울</v>
       </c>
       <c r="B116">
-        <v>2009.9999999999998</v>
+        <v>454</v>
       </c>
       <c r="C116" t="str">
         <v>big4</v>
       </c>
       <c r="D116" t="str">
-        <v>tent</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E116" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F116" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5190475/51904753618.20241212160335.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5150310/51503107621.20241120151611.jpg?type=f640</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>빅아그네스 풋프린트 플라이 크릭 HV UL 2 솔루션 다이 ESOXU00123</v>
-      </c>
-      <c r="B117" t="str">
-        <v/>
+        <v>빅아그네스 카퍼 스퍼 HV UL3 LONG 텐트 3인용</v>
+      </c>
+      <c r="B117">
+        <v>1790</v>
       </c>
       <c r="C117" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D117" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E117" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F117" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4892494/48924947851.20240705010406.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5192318/51923186622.20241213171923.jpg?type=f640</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>빅아그네스 빅 하우스 4 텐트 베스티블</v>
-      </c>
-      <c r="B118">
-        <v>1670</v>
+        <v>빅아그네스 빅 아그네스 세이지 캐년 쉘터 텐트 플러스 트레킹 캠핑 백패킹</v>
+      </c>
+      <c r="B118" t="str">
+        <v/>
       </c>
       <c r="C118" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D118" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E118" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F118" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5192318/51923184620.20241213165832.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5319567/53195677168.20250225003421.jpg?type=f640</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>빅아그네스 BIG AGNES 플라이 크릭 HV UL2 플래티넘 전용 풋프린트 ESJXU00435</v>
+        <v>빅아그네스 솔트 크릭 SL3 풋프린트 293449</v>
       </c>
       <c r="B119" t="str">
         <v/>
@@ -2779,32 +2779,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F119" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3582953/35829536032.20241103113520.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4293419/42934199168.20230929102118.jpg?type=f640</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>빅아그네스 카빈 크릭 -1℃ 침낭 ESJXU00178</v>
+        <v>빅아그네스 에어 코어 울트라 와이드 롱 ESKXU00303 25 x 78</v>
       </c>
       <c r="B120">
-        <v>1980</v>
+        <v>709</v>
       </c>
       <c r="C120" t="str">
         <v>big4</v>
       </c>
       <c r="D120" t="str">
-        <v>sleeping_bag</v>
+        <v>mat</v>
       </c>
       <c r="E120" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F120" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297936/32979361619.20220616094450.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298349/32983492623.20220616165016.jpg?type=f640</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>빅아그네스 풋프린트 블랙테일 3 호텔 텐트 풋프린트 그라운드시트 방수포</v>
+        <v>빅아그네스 빅 아그네스 스파이서 피크 6 텐트</v>
       </c>
       <c r="B121" t="str">
         <v/>
@@ -2819,52 +2819,52 @@
         <v>빅아그네스</v>
       </c>
       <c r="F121" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4758938/47589380223.20240508220344.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4734794/47347942547.20240426212402.jpg?type=f640</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>빅아그네스 슬리핑 백 라이너 울</v>
+        <v>빅아그네스 스파이서 피크 6 텐트 ESMXU00493 6인용</v>
       </c>
       <c r="B122">
-        <v>454</v>
+        <v>7510</v>
       </c>
       <c r="C122" t="str">
         <v>big4</v>
       </c>
       <c r="D122" t="str">
-        <v>sleeping_bag</v>
+        <v>tent</v>
       </c>
       <c r="E122" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F122" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5150310/51503107621.20241120151611.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3545640/35456408618.20221026120427.jpg?type=f640</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>빅아그네스 토치라이트 UL -6℃ 레귤러 ESKXU00672</v>
-      </c>
-      <c r="B123">
-        <v>1020</v>
+        <v>빅아그네스 빅 아그네스 플라이 크릭 UL1 텐트 싱글 3계절</v>
+      </c>
+      <c r="B123" t="str">
+        <v/>
       </c>
       <c r="C123" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D123" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E123" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F123" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298282/32982822620.20220616152114.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5273976/52739765548.20250131183751.jpg?type=f640</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>빅아그네스 빅 아그네스 캠프 5 UL 풋프린트 텐트</v>
+        <v>빅아그네스 빅 아그네스 블랙테일 4 텐트 4인용 3계절</v>
       </c>
       <c r="B124" t="str">
         <v/>
@@ -2879,12 +2879,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F124" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5328926/53289269700.20250302011408.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5272710/52727100307.20250130195208.jpg?type=f640</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>빅아그네스 빅 아그네스 세이지 캐년 쉘터 텐트 플러스 트레킹 캠핑 백패킹</v>
+        <v>빅아그네스 스파이서 피크 4 풋프린트 텐트 450159</v>
       </c>
       <c r="B125" t="str">
         <v/>
@@ -2899,32 +2899,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F125" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5319567/53195677168.20250225003421.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5287707/52877070199.20250207220642.jpg?type=f640</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>빅아그네스 스파이서 피크 6 텐트 ESMXU00493 6인용</v>
+        <v>빅아그네스 토치라이트 UL -6℃ 레귤러 ESKXU00672</v>
       </c>
       <c r="B126">
-        <v>7510</v>
+        <v>1020</v>
       </c>
       <c r="C126" t="str">
         <v>big4</v>
       </c>
       <c r="D126" t="str">
-        <v>tent</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E126" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F126" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3545640/35456408618.20221026120427.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298282/32982822620.20220616152114.jpg?type=f640</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>빅아그네스 솔트 크릭 SL3 풋프린트 293449</v>
+        <v>빅아그네스 빅 아그네스 타이거 월 2 플래티넘 텐트 2인용 3계절</v>
       </c>
       <c r="B127" t="str">
         <v/>
@@ -2939,52 +2939,52 @@
         <v>빅아그네스</v>
       </c>
       <c r="F127" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4293419/42934199168.20230929102118.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5268899/52688993774.20250128001513.jpg?type=f640</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>빅아그네스 빅 아그네스 기어 로프트 텐트 액세서리 Large Trapezoid</v>
-      </c>
-      <c r="B128" t="str">
-        <v/>
+        <v>빅아그네스 쉴드 3 텐트 베스티블</v>
+      </c>
+      <c r="B128">
+        <v>936</v>
       </c>
       <c r="C128" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D128" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E128" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F128" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5292710/52927108599.20250210232010.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5192298/51922984621.20241213170409.jpg?type=f640</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>빅아그네스 퓨셀 UL 퀼트 ESKXU00675</v>
+        <v>빅아그네스 골드 캠프 3 텐트 메쉬 이너</v>
       </c>
       <c r="B129">
-        <v>482</v>
+        <v>1050</v>
       </c>
       <c r="C129" t="str">
         <v>big4</v>
       </c>
       <c r="D129" t="str">
-        <v>sleeping_bag</v>
+        <v>tent</v>
       </c>
       <c r="E129" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F129" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297942/32979427620.20220616121714.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5148649/51486490618.20241119171750.jpg?type=f640</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>빅아그네스 빅 아그네스 스파이서 피크 6 텐트</v>
+        <v>빅아그네스 빅 아그네스 하우스 6 텐트 6인용 3계절 트레킹 캠핑 백패킹</v>
       </c>
       <c r="B130" t="str">
         <v/>
@@ -2999,67 +2999,67 @@
         <v>빅아그네스</v>
       </c>
       <c r="F130" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4734794/47347942547.20240426212402.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5314917/53149175316.20250222003101.jpg?type=f640</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>빅아그네스 골드 캠프 3 텐트 메쉬 이너</v>
-      </c>
-      <c r="B131">
-        <v>1050</v>
+        <v>빅아그네스 7 팩 6 핑거 캠핑 텐트 소품 ESJXU00045</v>
+      </c>
+      <c r="B131" t="str">
+        <v/>
       </c>
       <c r="C131" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D131" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E131" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F131" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5148649/51486490618.20241119171750.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3598370/35983703001.20221121084719.jpg?type=f640</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>빅아그네스 빅 아그네스 플라이 크릭 UL1 텐트 싱글 3계절</v>
-      </c>
-      <c r="B132" t="str">
-        <v/>
+        <v>빅아그네스 소울 키친 캠프 테이블 ESJXU00233</v>
+      </c>
+      <c r="B132">
+        <v>1930</v>
       </c>
       <c r="C132" t="str">
-        <v>etc</v>
+        <v>furniture</v>
       </c>
       <c r="D132" t="str">
-        <v>etc</v>
+        <v>table</v>
       </c>
       <c r="E132" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F132" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5273976/52739765548.20250131183751.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2860053/28600538555.20210827100002.jpg?type=f640</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>빅아그네스 빅 아그네스 블랙테일 4 텐트 4인용 3계절</v>
-      </c>
-      <c r="B133" t="str">
-        <v/>
+        <v>빅아그네스 인슐레이티드 에어 코어 울트라 와이드 롱 ESLXU00301 25 x 78</v>
+      </c>
+      <c r="B133">
+        <v>879</v>
       </c>
       <c r="C133" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D133" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E133" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F133" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5272710/52727100307.20250130195208.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298348/32983489623.20220616162224.jpg?type=f640</v>
       </c>
     </row>
     <row r="134">
@@ -3079,12 +3079,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F134" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3636421/36364210713.20240915070842.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3636421/36364210713.20240915070842.jpg?type=f640</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>빅아그네스 스파이서 피크 4 풋프린트 텐트 450159</v>
+        <v>빅아그네스 빅 아그네스 블랙테일 3 호텔 텐트 3인용 3계절 트레킹 캠핑 백패킹</v>
       </c>
       <c r="B135" t="str">
         <v/>
@@ -3099,92 +3099,92 @@
         <v>빅아그네스</v>
       </c>
       <c r="F135" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5287707/52877070199.20250207220642.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5272797/52727974005.20250131004059.jpg?type=f640</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>빅아그네스 빅 아그네스 타이거 월 2 플래티넘 텐트 2인용 3계절</v>
-      </c>
-      <c r="B136" t="str">
-        <v/>
+        <v>빅아그네스 웨스톤 쉘터 플루어 텐트</v>
+      </c>
+      <c r="B136">
+        <v>1780</v>
       </c>
       <c r="C136" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D136" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E136" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F136" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5268899/52688993774.20250128001513.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5192304/51923042620.20241213163812.jpg?type=f640</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>빅아그네스 웨스톤 쉘터 플루어 텐트</v>
-      </c>
-      <c r="B137">
-        <v>1780</v>
+        <v>맥아웃도어 빅아그네스 타이거월UL2 맥풋라이트 풋프린트</v>
+      </c>
+      <c r="B137" t="str">
+        <v/>
       </c>
       <c r="C137" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D137" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E137" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F137" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5192304/51923042620.20241213163812.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5009996/50099960114.20240901234409.jpg?type=f640</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>빅아그네스 쉴드 3 텐트 베스티블</v>
-      </c>
-      <c r="B138">
-        <v>936</v>
+        <v>빅아그네스 슬리핑 백 라이너 플리스 ESJXU00250</v>
+      </c>
+      <c r="B138" t="str">
+        <v/>
       </c>
       <c r="C138" t="str">
         <v>big4</v>
       </c>
       <c r="D138" t="str">
-        <v>tent</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E138" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F138" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5192298/51922984621.20241213170409.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3297968/32979684619.20220616135052.jpg?type=f640</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>빅아그네스 인슐레이티드 에어 코어 울트라 와이드 롱 ESLXU00301 25 x 78</v>
-      </c>
-      <c r="B139">
-        <v>879</v>
+        <v>빅아그네스 카퍼 스퍼 HV UL1 HV 마운틴글로우 ESKXU00470</v>
+      </c>
+      <c r="B139" t="str">
+        <v/>
       </c>
       <c r="C139" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D139" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E139" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F139" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298348/32983489623.20220616162224.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4297702/42977024568.20231002110542.jpg?type=f640</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>빅아그네스 빅 아그네스 하우스 6 텐트 6인용 3계절 트레킹 캠핑 백패킹</v>
+        <v>빅아그네스 빅 아그네스 타이거 월 3 플래티넘 텐트 3인용 3계절 트레킹 캠핑 백패킹</v>
       </c>
       <c r="B140" t="str">
         <v/>
@@ -3199,15 +3199,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F140" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5314917/53149175316.20250222003101.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4947718/49477180316.20240729194816.jpg?type=f640</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>빅아그네스 7 팩 6 핑거 캠핑 텐트 소품 ESJXU00045</v>
-      </c>
-      <c r="B141" t="str">
-        <v/>
+        <v>빅아그네스 골드 캠프 3 타프</v>
+      </c>
+      <c r="B141">
+        <v>2070</v>
       </c>
       <c r="C141" t="str">
         <v>etc</v>
@@ -3219,35 +3219,35 @@
         <v>빅아그네스</v>
       </c>
       <c r="F141" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3598370/35983703001.20221121084719.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4794638/47946388624.20240524124806.jpg?type=f640</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>빅아그네스 소울 키친 캠프 테이블 ESJXU00233</v>
-      </c>
-      <c r="B142">
-        <v>1930</v>
+        <v>빅아그네스 와이 낫 피크닉 블랭킷 55X85 ESPXU00002</v>
+      </c>
+      <c r="B142" t="str">
+        <v/>
       </c>
       <c r="C142" t="str">
-        <v>furniture</v>
+        <v>etc</v>
       </c>
       <c r="D142" t="str">
-        <v>table</v>
+        <v>etc</v>
       </c>
       <c r="E142" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F142" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2860053/28600538555.20210827100002.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5328901/53289013371.20250301224050.jpg?type=f640</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>빅아그네스 슬리핑 백 하프 라이너 ESKXU00676</v>
+        <v>빅아그네스 캐빈 크릭 -9℃ 40 더블와이드 ESLXU00305</v>
       </c>
       <c r="B143">
-        <v>283</v>
+        <v>2100</v>
       </c>
       <c r="C143" t="str">
         <v>big4</v>
@@ -3259,95 +3259,95 @@
         <v>빅아그네스</v>
       </c>
       <c r="F143" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297947/32979477619.20220616123823.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3297968/32979687618.20220616113616.jpg?type=f640</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>빅아그네스 토치라이트 UL 20 침낭 ESKXU00673</v>
-      </c>
-      <c r="B144">
-        <v>480</v>
+        <v>빅아그네스 풋프린트 카퍼스퍼 HV UL 2 익스페디션 ESNXU00467</v>
+      </c>
+      <c r="B144" t="str">
+        <v/>
       </c>
       <c r="C144" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D144" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E144" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F144" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2922714/29227147619.20211014101745.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4392143/43921432555.20231109163959.jpg?type=f640</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL1 HV 마운틴글로우 ESKXU00470</v>
-      </c>
-      <c r="B145" t="str">
-        <v/>
+        <v>빅아그네스 써드 디그리 폼 패드 레귤러 발포매트 ESJXU00109 20 x 72</v>
+      </c>
+      <c r="B145">
+        <v>340</v>
       </c>
       <c r="C145" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D145" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E145" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F145" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4297702/42977024568.20231002110542.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298424/32984244618.20220616174052.jpg?type=f640</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>빅아그네스 빅 아그네스 블랙테일 3 호텔 텐트 3인용 3계절 트레킹 캠핑 백패킹</v>
+        <v>빅아그네스 도그 하우스6 텐트 ESKXU00695</v>
       </c>
       <c r="B146" t="str">
         <v/>
       </c>
       <c r="C146" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D146" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E146" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F146" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5272797/52727974005.20250131004059.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2404260/24042600032.20200904173815.jpg?type=f640</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>빅아그네스 골드 캠프 3 타프</v>
-      </c>
-      <c r="B147">
-        <v>2070</v>
+        <v>빅아그네스 솔트 크릭 SL3 ESKXU00681 3인용</v>
+      </c>
+      <c r="B147" t="str">
+        <v/>
       </c>
       <c r="C147" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D147" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E147" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F147" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4794638/47946388624.20240524124806.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2284900/22849007430.20200513161651.jpg?type=f640</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>빅아그네스 로스트 레인저 3N1 -9℃ 650 DOWNTEK REGULAR ESMXU00246</v>
+        <v>빅아그네스 토치라이트 UL -1℃ 레귤러 ESKXU00670</v>
       </c>
       <c r="B148">
-        <v>454</v>
+        <v>794</v>
       </c>
       <c r="C148" t="str">
         <v>big4</v>
@@ -3359,35 +3359,35 @@
         <v>빅아그네스</v>
       </c>
       <c r="F148" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5150277/51502773625.20241120152959.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298274/32982740619.20220616150747.jpg?type=f640</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>맥아웃도어 빅아그네스 타이거월UL2 맥풋라이트 풋프린트</v>
-      </c>
-      <c r="B149" t="str">
-        <v/>
+        <v>빅아그네스 퍼셀 UL 퀼트 침낭 ESKXU00675</v>
+      </c>
+      <c r="B149">
+        <v>485</v>
       </c>
       <c r="C149" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D149" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E149" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F149" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5009996/50099960114.20240901234409.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4540873/45408736619.20240123124954.jpg?type=f640</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>빅아그네스 로스트 레인저 UL 3N1 -9℃ 레귤러 ESMXU00240</v>
+        <v>빅아그네스 플루톤 UL 4℃ 레귤러 ESKXU00214</v>
       </c>
       <c r="B150">
-        <v>992</v>
+        <v>454</v>
       </c>
       <c r="C150" t="str">
         <v>big4</v>
@@ -3399,15 +3399,15 @@
         <v>빅아그네스</v>
       </c>
       <c r="F150" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297947/32979477620.20220616135903.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298282/32982820618.20220616143943.jpg?type=f640</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>빅아그네스 슬리핑 백 라이너 플리스 ESJXU00250</v>
-      </c>
-      <c r="B151" t="str">
-        <v/>
+        <v>빅아그네스 토치라이트 UL -1℃ 롱 ESKXU00671</v>
+      </c>
+      <c r="B151">
+        <v>936</v>
       </c>
       <c r="C151" t="str">
         <v>big4</v>
@@ -3419,135 +3419,135 @@
         <v>빅아그네스</v>
       </c>
       <c r="F151" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297968/32979684619.20220616135052.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298098/32980985624.20220616151322.jpg?type=f640</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>빅아그네스 빅 아그네스 타이거 월 3 플래티넘 텐트 3인용 3계절 트레킹 캠핑 백패킹</v>
+        <v>빅아그네스 카퍼스퍼 HV UL3 텐트 2-3인용</v>
       </c>
       <c r="B152" t="str">
         <v/>
       </c>
       <c r="C152" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D152" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E152" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F152" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4947718/49477180316.20240729194816.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2252150/22521507520.20200417182610.jpg?type=f640</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>빅아그네스 캐빈 크릭 -9℃ 40 더블와이드 ESLXU00305</v>
-      </c>
-      <c r="B153">
-        <v>2100</v>
+        <v>빅아그네스 카퍼 스퍼 HV UL3 HV 마운틴 글로우 전용 풋프린트 ESKXU00472</v>
+      </c>
+      <c r="B153" t="str">
+        <v/>
       </c>
       <c r="C153" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D153" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E153" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F153" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297968/32979687618.20220616113616.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4107216/41072160392.20230709071540.jpg?type=f640</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>빅아그네스 토치라이트 UL -1℃ 롱 ESKXU00671</v>
-      </c>
-      <c r="B154">
-        <v>936</v>
+        <v>빅아그네스 Q CORE DELUXE PILLOW XXX Q 코어 디럭스 필로우 ESMXU00033</v>
+      </c>
+      <c r="B154" t="str">
+        <v/>
       </c>
       <c r="C154" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D154" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E154" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F154" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298098/32980985624.20220616151322.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5252528/52525282063.20250117001628.jpg?type=f640</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>빅아그네스 와이 낫 피크닉 블랭킷 55X85 ESPXU00002</v>
-      </c>
-      <c r="B155" t="str">
-        <v/>
+        <v>빅아그네스 카퍼 스퍼 HV2 익스페디션 텐트</v>
+      </c>
+      <c r="B155">
+        <v>2410</v>
       </c>
       <c r="C155" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D155" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E155" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F155" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5328901/53289013371.20250301224050.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4794715/47947158619.20240524144341.jpg?type=f640</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>빅아그네스 풋프린트 카퍼스퍼 HV UL 2 익스페디션 ESNXU00467</v>
-      </c>
-      <c r="B156" t="str">
-        <v/>
+        <v>빅아그네스 인슐레이티드 에어 코어 울트라 20X72 레귤러 ESMXU00234</v>
+      </c>
+      <c r="B156">
+        <v>624</v>
       </c>
       <c r="C156" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D156" t="str">
-        <v>etc</v>
+        <v>mat</v>
       </c>
       <c r="E156" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F156" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4392143/43921432555.20231109163959.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4490643/44906435618.20231227150249.jpg?type=f640</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>빅아그네스 써드 디그리 폼 패드 레귤러 발포매트 ESJXU00109 20 x 72</v>
-      </c>
-      <c r="B157">
-        <v>340</v>
+        <v>빅아그네스 풋프린트 카퍼스퍼 HV UL3 바이크팩 ESMXU00477</v>
+      </c>
+      <c r="B157" t="str">
+        <v/>
       </c>
       <c r="C157" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D157" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E157" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F157" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298424/32984244618.20220616174052.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4087104/40871042242.20230628200432.jpg?type=f640</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>빅아그네스 토치라이트 캠프 7°C 롱 ESLXU00705</v>
+        <v>빅아그네스 V NOTCH UL 40 LONG LEFT ESJXU00400</v>
       </c>
       <c r="B158">
-        <v>4470</v>
+        <v>709</v>
       </c>
       <c r="C158" t="str">
         <v>big4</v>
@@ -3559,95 +3559,95 @@
         <v>빅아그네스</v>
       </c>
       <c r="F158" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298098/32980988620.20220616140850.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2632266/26322667526.20210311171205.jpg?type=f640</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>빅아그네스 토치라이트 캠프 7°C 레귤러 ESLXU00704</v>
-      </c>
-      <c r="B159">
-        <v>4470</v>
+        <v>빅아그네스 풋프린트 매드 하우스 8 ESOXU00378</v>
+      </c>
+      <c r="B159" t="str">
+        <v/>
       </c>
       <c r="C159" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D159" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E159" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F159" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297968/32979685618.20220616111901.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4999374/49993746543.20240827223816.jpg?type=f640</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>빅아그네스 플루톤 UL 4℃ 레귤러 ESKXU00214</v>
+        <v>빅아그네스 도그 하우스6 텐트 ESKXU00695</v>
       </c>
       <c r="B160">
-        <v>454</v>
+        <v>6100</v>
       </c>
       <c r="C160" t="str">
         <v>big4</v>
       </c>
       <c r="D160" t="str">
-        <v>sleeping_bag</v>
+        <v>tent</v>
       </c>
       <c r="E160" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F160" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298282/32982820618.20220616143943.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3194717/31947178618.20220421181153.jpg?type=f640</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>빅아그네스 도그 하우스6 텐트 ESKXU00695</v>
-      </c>
-      <c r="B161" t="str">
-        <v/>
+        <v>빅아그네스 디바이드 인슐레이티드 캠핑매트 ESOXU00803 와이드 레귤러</v>
+      </c>
+      <c r="B161">
+        <v>850</v>
       </c>
       <c r="C161" t="str">
         <v>big4</v>
       </c>
       <c r="D161" t="str">
-        <v>tent</v>
+        <v>mat</v>
       </c>
       <c r="E161" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F161" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2404260/24042600032.20200904173815.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4872962/48729628618.20240627165731.jpg?type=f640</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>빅아그네스 플루톤 UL 4℃ 레귤러 ESKXU00214</v>
+        <v>빅아그네스 디바이드 인슐레이티드 캠핑매트 ESOXU00803 와이드 레귤러</v>
       </c>
       <c r="B162">
-        <v>454</v>
+        <v>850</v>
       </c>
       <c r="C162" t="str">
         <v>big4</v>
       </c>
       <c r="D162" t="str">
-        <v>sleeping_bag</v>
+        <v>mat</v>
       </c>
       <c r="E162" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F162" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3298282/32982820618.20220616143943.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4872962/48729628618.20240627165731.jpg?type=f640</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>빅아그네스 토치라이트 캠프 7°C 레귤러 ESLXU00704</v>
+        <v>빅아그네스 V NOTCH UL 40 LONG LEFT ESJXU00400</v>
       </c>
       <c r="B163">
-        <v>4470</v>
+        <v>709</v>
       </c>
       <c r="C163" t="str">
         <v>big4</v>
@@ -3659,75 +3659,75 @@
         <v>빅아그네스</v>
       </c>
       <c r="F163" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297968/32979685618.20220616111901.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2632266/26322667526.20210311171205.jpg?type=f640</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>빅아그네스 Q CORE DELUXE PILLOW XXX Q 코어 디럭스 필로우 ESMXU00033</v>
-      </c>
-      <c r="B164" t="str">
-        <v/>
+        <v>빅아그네스 토치라이트 캠프 7°C 롱 ESLXU00705</v>
+      </c>
+      <c r="B164">
+        <v>4470</v>
       </c>
       <c r="C164" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D164" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E164" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F164" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5252528/52525282063.20250117001628.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3298098/32980988620.20220616140850.jpg?type=f640</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>빅아그네스 풋프린트 카퍼스퍼 HV UL3 바이크팩 ESMXU00477</v>
-      </c>
-      <c r="B165" t="str">
-        <v/>
+        <v>빅아그네스 토치라이트 캠프 7°C 레귤러 ESLXU00704</v>
+      </c>
+      <c r="B165">
+        <v>4470</v>
       </c>
       <c r="C165" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D165" t="str">
-        <v>etc</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E165" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F165" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4087104/40871042242.20230628200432.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3297968/32979685618.20220616111901.jpg?type=f640</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>빅아그네스 골드 캠프 UL 3 타프</v>
+        <v>빅아그네스 골드 캠프 UL 5 메쉬 이너텐트</v>
       </c>
       <c r="B166">
-        <v>1220</v>
+        <v>1020</v>
       </c>
       <c r="C166" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D166" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E166" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F166" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4794714/47947149619.20240524141704.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4800276/48002763620.20240527173916.jpg?type=f640</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>빅아그네스 V NOTCH UL 40 LONG LEFT ESJXU00400</v>
+        <v>빅아그네스 로스트 레인저 3N1 -9℃ 650 DOWNTEK REGULAR ESMXU00246</v>
       </c>
       <c r="B167">
-        <v>709</v>
+        <v>454</v>
       </c>
       <c r="C167" t="str">
         <v>big4</v>
@@ -3739,147 +3739,147 @@
         <v>빅아그네스</v>
       </c>
       <c r="F167" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2632266/26322667526.20210311171205.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5150277/51502773625.20241120152959.jpg?type=f640</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>빅아그네스 풋프린트 도그 하우스 4 ESKXU00696</v>
+        <v>빅아그네스 블랙테일 3 호텔 ESKXU00688 3인용</v>
       </c>
       <c r="B168" t="str">
         <v/>
       </c>
       <c r="C168" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D168" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E168" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F168" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4547144/45471445468.20240126122313.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2649986/26499860522.20210324175251.jpg?type=f640</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>빅아그네스 풋프린트 매드 하우스 8 ESOXU00378</v>
-      </c>
-      <c r="B169" t="str">
-        <v/>
+        <v>빅아그네스 타이거 월 UL3 바이크팩 솔루션 다이 텐트 ESMXU00464 3인용</v>
+      </c>
+      <c r="B169">
+        <v>1500</v>
       </c>
       <c r="C169" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D169" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E169" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F169" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4999374/49993746543.20240827223816.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5192337/51923374619.20241213172733.jpg?type=f640</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>빅아그네스 디바이드 인슐레이티드 캠핑매트 ESOXU00803 와이드 레귤러</v>
+        <v>빅아그네스 슬리핑백 라이너 울 침낭 EJBLWL18</v>
       </c>
       <c r="B170">
-        <v>850</v>
+        <v>454</v>
       </c>
       <c r="C170" t="str">
         <v>big4</v>
       </c>
       <c r="D170" t="str">
-        <v>mat</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E170" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F170" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4872962/48729628618.20240627165731.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2075340/20753400565.20190827142008.jpg?type=f640</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>빅아그네스 도그 하우스6 텐트 ESKXU00695</v>
+        <v>빅아그네스 트위스터케인 바이오 폼 ESNXU00266</v>
       </c>
       <c r="B171">
-        <v>6100</v>
+        <v>570</v>
       </c>
       <c r="C171" t="str">
         <v>big4</v>
       </c>
       <c r="D171" t="str">
-        <v>tent</v>
+        <v>mat</v>
       </c>
       <c r="E171" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F171" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3194717/31947178618.20220421181153.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4418313/44183132620.20231122123453.jpg?type=f640</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>빅아그네스 골드 캠프 5 타프</v>
+        <v>빅아그네스 골드 캠프 5 메쉬 이너텐트 ESNXU00326</v>
       </c>
       <c r="B172">
-        <v>2380</v>
+        <v>1420</v>
       </c>
       <c r="C172" t="str">
-        <v>etc</v>
+        <v>big4</v>
       </c>
       <c r="D172" t="str">
-        <v>etc</v>
+        <v>tent</v>
       </c>
       <c r="E172" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F172" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4794714/47947144618.20240524141030.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4794713/47947134620.20240524124416.jpg?type=f640</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>빅아그네스 골드 캠프 UL 5 메쉬 이너텐트</v>
+        <v>빅아그네스 볼튼 SL 20 롱 레프트 침낭 EJBTMBSLLL18</v>
       </c>
       <c r="B173">
-        <v>1020</v>
+        <v>1340</v>
       </c>
       <c r="C173" t="str">
         <v>big4</v>
       </c>
       <c r="D173" t="str">
-        <v>tent</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E173" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F173" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4800276/48002763620.20240527173916.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2077124/20771240872.20190829161111.jpg?type=f640</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>빅아그네스 볼튼 SL 20 롱 레프트 침낭 EJBTMBSLLL18</v>
+        <v>빅아그네스 디바이드 인슐레이티드 레귤러</v>
       </c>
       <c r="B174">
-        <v>1340</v>
+        <v>652</v>
       </c>
       <c r="C174" t="str">
         <v>big4</v>
       </c>
       <c r="D174" t="str">
-        <v>sleeping_bag</v>
+        <v>mat</v>
       </c>
       <c r="E174" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F174" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2077124/20771240872.20190829161111.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4794704/47947042618.20240524121312.jpg?type=f640</v>
       </c>
     </row>
     <row r="175">
@@ -3899,192 +3899,192 @@
         <v>빅아그네스</v>
       </c>
       <c r="F175" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2632291/26322912524.20210311165742.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2632291/26322912524.20210311165742.jpg?type=f640</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV2 익스페디션 텐트</v>
+        <v>빅아그네스 줌 인슐레이티드 레귤러</v>
       </c>
       <c r="B176">
-        <v>2410</v>
+        <v>397</v>
       </c>
       <c r="C176" t="str">
         <v>big4</v>
       </c>
       <c r="D176" t="str">
-        <v>tent</v>
+        <v>mat</v>
       </c>
       <c r="E176" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F176" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4794715/47947158619.20240524144341.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4794711/47947111618.20240524122013.jpg?type=f640</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>빅아그네스 트위스터케인 바이오 폼 ESNXU00266</v>
-      </c>
-      <c r="B177">
-        <v>570</v>
+        <v>빅아그네스 카퍼 스퍼 HV UL2 HV 마운틴 글로우 전용 풋프린트 ESKXU00471</v>
+      </c>
+      <c r="B177" t="str">
+        <v/>
       </c>
       <c r="C177" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D177" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E177" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F177" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4418313/44183132620.20231122123453.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3577357/35773572263.20240914092439.jpg?type=f640</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>빅아그네스 골드 캠프 5 메쉬 이너텐트 ESNXU00326</v>
-      </c>
-      <c r="B178">
-        <v>1420</v>
+        <v>빅아그네스 빅 아그네스 애그네스 플라이 크릭 UL1 풋프린트 그라운드쉬트 방수포 트레킹 캠핑 백패킹</v>
+      </c>
+      <c r="B178" t="str">
+        <v/>
       </c>
       <c r="C178" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D178" t="str">
-        <v>tent</v>
+        <v>etc</v>
       </c>
       <c r="E178" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F178" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4794713/47947134620.20240524124416.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5343299/53432992433.20250308225757.jpg?type=f640</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>빅아그네스 슬리핑백 라이너 울 침낭 EJBLWL18</v>
-      </c>
-      <c r="B179">
-        <v>454</v>
+        <v>빅아그네스 빅 아그네스 애그네스 C 바 시리즈 풋프린트 그라운드쉬트 방수포 트레킹 캠핑 백패킹 Vetiver</v>
+      </c>
+      <c r="B179" t="str">
+        <v/>
       </c>
       <c r="C179" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D179" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E179" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F179" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_2075340/20753400565.20190827142008.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5310319/53103193523.20250219235850.jpg?type=f640</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>빅아그네스 드림 아일랜드 -7℃ 50 더블와이드 ESMXU00253</v>
-      </c>
-      <c r="B180">
-        <v>3180</v>
+        <v>빅아그네스 카퍼 스퍼 HV UL3 EJTHVCSG317 텐트 3인용</v>
+      </c>
+      <c r="B180" t="str">
+        <v/>
       </c>
       <c r="C180" t="str">
         <v>big4</v>
       </c>
       <c r="D180" t="str">
-        <v>sleeping_bag</v>
+        <v>tent</v>
       </c>
       <c r="E180" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F180" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297964/32979642618.20220616105327.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_2383803/23838038522.20200820144040.jpg?type=f640</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>빅아그네스 드림 아일랜드 2℃ 50 더블와이드 ESMXU00252</v>
-      </c>
-      <c r="B181">
-        <v>1420</v>
+        <v>빅아그네스 카퍼스퍼HV UL1 HV마운틴글로우 풋프린트</v>
+      </c>
+      <c r="B181" t="str">
+        <v/>
       </c>
       <c r="C181" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D181" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E181" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F181" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3297964/32979644618.20220616111339.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4525379/45253798100.20240114212858.jpg?type=f640</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>빅아그네스 인슐레이티드 에어 코어 울트라 20X72 레귤러 ESMXU00234</v>
+        <v>빅아그네스 빅 크릭 -1℃ FIRELINE ECO 40인치 DOUBLE WIDE ESJXU00178</v>
       </c>
       <c r="B182">
-        <v>624</v>
+        <v>1980</v>
       </c>
       <c r="C182" t="str">
         <v>big4</v>
       </c>
       <c r="D182" t="str">
-        <v>mat</v>
+        <v>sleeping_bag</v>
       </c>
       <c r="E182" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F182" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4490643/44906435618.20231227150249.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5150377/51503779619.20241120152440.jpg?type=f640</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>빅아그네스 줌 인슐레이티드 레귤러</v>
-      </c>
-      <c r="B183">
-        <v>397</v>
+        <v>방수포 빅아그네스 베스티블 쉴드2 전용 그라운드시트 타포린 풋프린트 천막 캠핑 PE 방수포</v>
+      </c>
+      <c r="B183" t="str">
+        <v/>
       </c>
       <c r="C183" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D183" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E183" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F183" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4794711/47947111618.20240524122013.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5172237/51722374607.20241203005422.jpg?type=f640</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>빅아그네스 디바이드 인슐레이티드 레귤러</v>
-      </c>
-      <c r="B184">
-        <v>652</v>
+        <v>솔트 크릭 백패킹 텐트용 빅 아그네스 풋프린트 3 Person 1개</v>
+      </c>
+      <c r="B184" t="str">
+        <v/>
       </c>
       <c r="C184" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D184" t="str">
-        <v>mat</v>
+        <v>etc</v>
       </c>
       <c r="E184" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F184" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4794704/47947042618.20240524121312.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4299228/42992280872.20231003141035.jpg?type=f640</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>빅아그네스 카퍼 스퍼 HV UL2 HV 마운틴 글로우 전용 풋프린트 ESKXU00471</v>
+        <v>빅 아그네스 와이오밍 트레일 발자국 4 Person</v>
       </c>
       <c r="B185" t="str">
         <v/>
@@ -4099,12 +4099,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F185" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3577357/35773572263.20240914092439.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4296797/42967973369.20231001201145.jpg?type=f640</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>빅아그네스 빅 아그네스 애그네스 C 바 시리즈 풋프린트 그라운드쉬트 방수포 트레킹 캠핑 백패킹 Vetiver</v>
+        <v>빅 아그네스 바운더리 디럭스 베개 지브롤터 바다</v>
       </c>
       <c r="B186" t="str">
         <v/>
@@ -4119,32 +4119,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F186" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5310319/53103193523.20250219235850.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4567902/45679024385.20240206163352.jpg?type=f640</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>빅아그네스 빅 크릭 -1℃ FIRELINE ECO 40인치 DOUBLE WIDE ESJXU00178</v>
-      </c>
-      <c r="B187">
-        <v>1980</v>
+        <v>빅 아그네스 래피드 베개</v>
+      </c>
+      <c r="B187" t="str">
+        <v/>
       </c>
       <c r="C187" t="str">
-        <v>big4</v>
+        <v>etc</v>
       </c>
       <c r="D187" t="str">
-        <v>sleeping_bag</v>
+        <v>etc</v>
       </c>
       <c r="E187" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F187" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5150377/51503779619.20241120152440.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4576767/45767674486.20240211170015.jpg?type=f640</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>빅아그네스 카퍼스퍼HV UL1 HV마운틴글로우 풋프린트</v>
+        <v>빅아그네스 더트 대거 UL 7 5 텐트 팩 6 ESMXU00007</v>
       </c>
       <c r="B188" t="str">
         <v/>
@@ -4159,12 +4159,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F188" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4525379/45253798100.20240114212858.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5025977/50259772203.20240910183540.jpg?type=f640</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>솔트 크릭 백패킹 텐트용 빅 아그네스 풋프린트 3 Person 1개</v>
+        <v>맥아웃도어 빅아그네스 스트링릿지 2p 이너용 맥풋라이트 풋프린트 BASL135E</v>
       </c>
       <c r="B189" t="str">
         <v/>
@@ -4179,12 +4179,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F189" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4299228/42992280872.20231003141035.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5303391/53033911022.20250215230052.jpg?type=f640</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>빅 아그네스 와이오밍 트레일 발자국 4 Person</v>
+        <v>블랙테일 호텔 텐트용 빅 아그네스 발자국 3</v>
       </c>
       <c r="B190" t="str">
         <v/>
@@ -4199,12 +4199,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F190" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4296797/42967973369.20231001201145.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4554814/45548141091.20240130221003.jpg?type=f640</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>빅 아그네스 래피드 베개</v>
+        <v>구리 스퍼 HVUL 배낭 텐트를 위한 빅 아그네스 발자국 Hv Ul 2 Long</v>
       </c>
       <c r="B191" t="str">
         <v/>
@@ -4219,12 +4219,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F191" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4576767/45767674486.20240211170015.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4587469/45874695550.20240217170009.jpg?type=f640</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>빅 아그네스 바운더리 디럭스 베개 지브롤터 바다</v>
+        <v>크랙 레이크 텐트를 위한 빅 아그네스 발자국</v>
       </c>
       <c r="B192" t="str">
         <v/>
@@ -4239,12 +4239,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F192" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4567902/45679024385.20240206163352.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4550986/45509867367.20240128164749.jpg?type=f640</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>빅아그네스 더트 대거 UL 7 5 텐트 팩 6 ESMXU00007</v>
+        <v>빅 아그네스 텐트 바닥 보호대</v>
       </c>
       <c r="B193" t="str">
         <v/>
@@ -4259,12 +4259,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F193" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5025977/50259772203.20240910183540.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4423777/44237777828.20231124221928.jpg?type=f640</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>맥아웃도어 빅아그네스 스트링릿지 2p 이너용 맥풋라이트 풋프린트 BASL135E</v>
+        <v>빅 아그네스 초경량 거들 침낭 압축기</v>
       </c>
       <c r="B194" t="str">
         <v/>
@@ -4279,12 +4279,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F194" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5303391/53033911022.20250215230052.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4577902/45779029655.20240212155951.jpg?type=f640</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>블랙테일 호텔 텐트용 빅 아그네스 발자국 3</v>
+        <v>매드 하우스 등산 텐트를 위한 빅 아그네스 발자국 6 Person</v>
       </c>
       <c r="B195" t="str">
         <v/>
@@ -4299,32 +4299,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F195" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4554814/45548141091.20240130221003.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4296714/42967145316.20231001183423.jpg?type=f640</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>빅 아그네스 파크 백 웨지파이어라인 맥스</v>
+        <v>빅 아그네스 mtnGLO LED 텐트 캠핑등 원사이즈</v>
       </c>
       <c r="B196" t="str">
         <v/>
       </c>
       <c r="C196" t="str">
-        <v>etc</v>
+        <v>lantern</v>
       </c>
       <c r="D196" t="str">
-        <v>etc</v>
+        <v>lantern</v>
       </c>
       <c r="E196" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F196" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5267614/52676146947.20250126185752.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4587616/45876164661.20240217192127.jpg?type=f640</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>크랙 레이크 텐트를 위한 빅 아그네스 발자국</v>
+        <v>빅 아그네스 먼지 단검 UL 텐트 말뚝 6</v>
       </c>
       <c r="B197" t="str">
         <v/>
@@ -4339,12 +4339,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F197" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4550986/45509867367.20240128164749.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4576840/45768401841.20240211182205.jpg?type=f640</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>빅 아그네스 초경량 거들 침낭 압축기</v>
+        <v>빅아그네스 풋프린트 타이거 월 UL3 바이크 팩 ESMXU00465</v>
       </c>
       <c r="B198" t="str">
         <v/>
@@ -4359,12 +4359,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F198" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4577902/45779029655.20240212155951.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4557134/45571347264.20240131203048.jpg?type=f640</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>빅 아그네스 텐트 바닥 보호대</v>
+        <v>빅 아그네스 파크 백 웨지파이어라인 맥스</v>
       </c>
       <c r="B199" t="str">
         <v/>
@@ -4379,12 +4379,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F199" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4423777/44237777828.20231124221928.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5267614/52676146947.20250126185752.jpg?type=f640</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>구리 스퍼 HVUL 배낭 텐트를 위한 빅 아그네스 발자국 Hv Ul 2 Long</v>
+        <v>빅아그네스 스파이서 피크 풋프린트 4</v>
       </c>
       <c r="B200" t="str">
         <v/>
@@ -4399,12 +4399,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F200" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4587469/45874695550.20240217170009.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4529059/45290594070.20240116210329.jpg?type=f640</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>매드 하우스 등산 텐트를 위한 빅 아그네스 발자국 6 Person</v>
+        <v>빅아그네스 BigAgnes 빅하우스 6 베스티블</v>
       </c>
       <c r="B201" t="str">
         <v/>
@@ -4419,12 +4419,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F201" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4296714/42967145316.20231001183423.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3135782/31357828978.20220317214504.jpg?type=f640</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>방수포 빅아그네스 베스티블 쉴드2 전용 그라운드시트 타포린 풋프린트 천막 캠핑 PE 방수포</v>
+        <v>빅아그네스 BigAgnes 빅하우스 4 풋프린트</v>
       </c>
       <c r="B202" t="str">
         <v/>
@@ -4439,32 +4439,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F202" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5172237/51722374607.20241203005422.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4517268/45172689488.20240110182605.jpg?type=f640</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>빅 아그네스 mtnGLO LED 텐트 캠핑등 원사이즈</v>
+        <v>빅아그네스 매드 하우스 6 풋프린트 293086</v>
       </c>
       <c r="B203" t="str">
         <v/>
       </c>
       <c r="C203" t="str">
-        <v>lantern</v>
+        <v>etc</v>
       </c>
       <c r="D203" t="str">
-        <v>lantern</v>
+        <v>etc</v>
       </c>
       <c r="E203" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F203" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4587616/45876164661.20240217192127.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_3927226/39272266374.20230409212906.jpg?type=f640</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>빅아그네스 풋프린트 타이거 월 UL3 바이크 팩 ESMXU00465</v>
+        <v>블랙테일 호텔 텐트 2 호텔을 위한 빅 아그네스 발자국</v>
       </c>
       <c r="B204" t="str">
         <v/>
@@ -4479,12 +4479,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F204" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4557134/45571347264.20240131203048.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4297808/42978088208.20231002133109.jpg?type=f640</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>빅아그네스 매드 하우스 6 풋프린트 293086</v>
+        <v>플라이 크릭 HVUL 바이크팩 텐트를 위한 빅 아그네스 발자국 1 Person</v>
       </c>
       <c r="B205" t="str">
         <v/>
@@ -4499,12 +4499,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F205" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3927226/39272266374.20230409212906.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4608433/46084338372.20240228192351.jpg?type=f640</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>빅아그네스 스파이서 피크 풋프린트 4</v>
+        <v>빅 아그네스 쓰리 와이어 바이비 Mesh</v>
       </c>
       <c r="B206" t="str">
         <v/>
@@ -4519,12 +4519,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F206" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4529059/45290594070.20240116210329.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4614212/46142128781.20240302180934.jpg?type=f640</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>빅아그네스 BigAgnes 빅하우스 4 풋프린트</v>
+        <v>빅 아그네스 압축 재료 자루</v>
       </c>
       <c r="B207" t="str">
         <v/>
@@ -4539,12 +4539,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F207" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4517268/45172689488.20240110182605.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4734798/47347984066.20240426214042.jpg?type=f640</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>빅아그네스 BigAgnes 빅하우스 6 베스티블</v>
+        <v>배틀 마운틴 시리즈 텐트를 위한 빅 아그네스 발자국 3 Person</v>
       </c>
       <c r="B208" t="str">
         <v/>
@@ -4559,12 +4559,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F208" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_3135782/31357828978.20220317214504.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4557221/45572210437.20240131211857.jpg?type=f640</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>빅 아그네스 먼지 단검 UL 텐트 말뚝 6</v>
+        <v>구리 스퍼 시리즈 텐트를 위한 빅 아그네스 발자국 탐험 2p</v>
       </c>
       <c r="B209" t="str">
         <v/>
@@ -4579,12 +4579,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F209" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4576840/45768401841.20240211182205.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4577840/45778403102.20240212145421.jpg?type=f640</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>빅 아그네스 스터프 자루 26L</v>
+        <v>블랙테일 배낭여행 캠핑 텐트를 위한 빅 아그네스 발자국</v>
       </c>
       <c r="B210" t="str">
         <v/>
@@ -4599,12 +4599,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F210" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4560906/45609069463.20240202175116.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5321509/53215096793.20250225205930.jpg?type=f640</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>플라이 크릭 HVUL 바이크팩 텐트를 위한 빅 아그네스 발자국 1 Person</v>
+        <v>빅아그네스 타이거 월 텐트 풋프린트 293023</v>
       </c>
       <c r="B211" t="str">
         <v/>
@@ -4619,12 +4619,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F211" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4608433/46084338372.20240228192351.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5213352/52133525455.20241226191332.jpg?type=f640</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>블랙테일 호텔 텐트 2 호텔을 위한 빅 아그네스 발자국</v>
+        <v>빅 아그네스 스카이라인 UL 초경량 백패킹 가구 스툴</v>
       </c>
       <c r="B212" t="str">
         <v/>
@@ -4639,12 +4639,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F212" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4297808/42978088208.20231002133109.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5330325/53303254338.20250302172137.jpg?type=f640</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>빅 아그네스 쓰리 와이어 바이비 Mesh</v>
+        <v>구리 스퍼 HVUL 배낭 텐트를 위한 빅 아그네스 발자국 Hv Ul5 1개 Hv Ul5</v>
       </c>
       <c r="B213" t="str">
         <v/>
@@ -4659,12 +4659,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F213" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4614212/46142128781.20240302180934.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4629972/46299724428.20240310145500.jpg?type=f640</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>빅 아그네스 압축 재료 자루</v>
+        <v>Big Agnes 빅 아그네스 Copper Spur HV UL1 공간</v>
       </c>
       <c r="B214" t="str">
         <v/>
@@ -4679,12 +4679,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F214" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4734798/47347984066.20240426214042.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4295246/42952461245.20230930184326.jpg?type=f640</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>빅 아그네스 펌프하우스 울트라</v>
+        <v>빅 아그네스 침낭 라이너</v>
       </c>
       <c r="B215" t="str">
         <v/>
@@ -4699,12 +4699,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F215" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4299419/42994196328.20231003174047.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4608655/46086556144.20240228214801.jpg?type=f640</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>빅 아그네스 스카이라인 UL 초경량 백패킹 가구 스툴</v>
+        <v>빅 아그네스 코퍼 스퍼 HV UL 시리즈 MTnGLO 발자국</v>
       </c>
       <c r="B216" t="str">
         <v/>
@@ -4719,12 +4719,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F216" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5330325/53303254338.20250302172137.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5306290/53062906605.20250218011736.jpg?type=f640</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>빅 아그네스 펌프하우스 초다회용 수면패드 펌프</v>
+        <v>빅 아그네스 팩 레인 커버 스몰 20-35L</v>
       </c>
       <c r="B217" t="str">
         <v/>
@@ -4739,12 +4739,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F217" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4676199/46761995431.20240330194846.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5015357/50153570478.20240904194616.jpg?type=f640</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Big Agnes 빅 아그네스 Copper Spur HV UL1 공간</v>
+        <v>빅 아그네스 펌프하우스 울트라</v>
       </c>
       <c r="B218" t="str">
         <v/>
@@ -4759,7 +4759,7 @@
         <v>빅아그네스</v>
       </c>
       <c r="F218" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4295246/42952461245.20230930184326.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4299419/42994196328.20231003174047.jpg?type=f640</v>
       </c>
     </row>
     <row r="219">
@@ -4779,52 +4779,52 @@
         <v>빅아그네스</v>
       </c>
       <c r="F219" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4628924/46289242233.20240309191959.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4628924/46289242233.20240309191959.jpg?type=f640</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>빅 아그네스 구스네스트 코트 싱글 와이드 액세서리 커버</v>
+        <v>빅 아그네스 펌프하우스 초다회용 수면패드 펌프</v>
       </c>
       <c r="B220" t="str">
         <v/>
       </c>
       <c r="C220" t="str">
-        <v>furniture</v>
+        <v>etc</v>
       </c>
       <c r="D220" t="str">
-        <v>furniture</v>
+        <v>etc</v>
       </c>
       <c r="E220" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F220" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4634318/46343184271.20240312221102.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4676199/46761995431.20240330194846.jpg?type=f640</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>구리 스퍼 시리즈 텐트를 위한 빅 아그네스 발자국 탐험 2p</v>
+        <v>하이킹 빅 아그네스 임파서블 20L 백팩 Fog</v>
       </c>
       <c r="B221" t="str">
         <v/>
       </c>
       <c r="C221" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="D221" t="str">
-        <v>etc</v>
+        <v>cooking</v>
       </c>
       <c r="E221" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F221" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4577840/45778403102.20240212145421.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5186217/51862176906.20241210215253.jpg?type=f640</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>배틀 마운틴 시리즈 텐트를 위한 빅 아그네스 발자국 3 Person</v>
+        <v>빅 아그네스 래피드 베개</v>
       </c>
       <c r="B222" t="str">
         <v/>
@@ -4839,12 +4839,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F222" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4557221/45572210437.20240131211857.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5307587/53075879549.20250218185624.jpg?type=f640</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>빅아그네스 타이거 월 텐트 풋프린트 293023</v>
+        <v>강아지 집 캠핑 텐트를 위한 빅 아그네스 발자국 4 Person</v>
       </c>
       <c r="B223" t="str">
         <v/>
@@ -4859,12 +4859,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F223" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5213352/52133525455.20241226191332.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4547924/45479249287.20240126201918.jpg?type=f640</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>빅 아그네스 코퍼 스퍼 HV UL 시리즈 MTnGLO 발자국</v>
+        <v>블랙테일 호텔 텐트를 위한 빅 아그네스 발자국</v>
       </c>
       <c r="B224" t="str">
         <v/>
@@ -4879,12 +4879,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F224" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5306290/53062906605.20250218011736.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4900598/49005981054.20240708225308.jpg?type=f640</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>빅 아그네스 침낭 라이너</v>
+        <v>빅 아그네스 발자국 액세서리 쉴드 4시즌 산악 텐트 3인용</v>
       </c>
       <c r="B225" t="str">
         <v/>
@@ -4899,12 +4899,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F225" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4608655/46086556144.20240228214801.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5130342/51303425580.20241108215001.jpg?type=f640</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>빅 아그네스 래피드 베개</v>
+        <v>빅 아그네스 무연탄 20 파이어라인 프로 재활용 침낭</v>
       </c>
       <c r="B226" t="str">
         <v/>
@@ -4919,32 +4919,32 @@
         <v>빅아그네스</v>
       </c>
       <c r="F226" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5307587/53075879549.20250218185624.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5339688/53396884129.20250307004904.jpg?type=f640</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>하이킹 빅 아그네스 임파서블 20L 백팩 Fog</v>
+        <v>빅 아그네스 사이드와인더 침낭 Long</v>
       </c>
       <c r="B227" t="str">
         <v/>
       </c>
       <c r="C227" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="D227" t="str">
-        <v>cooking</v>
+        <v>etc</v>
       </c>
       <c r="E227" t="str">
         <v>빅아그네스</v>
       </c>
       <c r="F227" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5186217/51862176906.20241210215253.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5068907/50689073997.20241005180437.jpg?type=f640</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>강아지 집 캠핑 텐트를 위한 빅 아그네스 발자국 4 Person</v>
+        <v>빅 아그네스 침낭 라이너 플리스 82</v>
       </c>
       <c r="B228" t="str">
         <v/>
@@ -4959,12 +4959,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F228" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4547924/45479249287.20240126201918.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4855220/48552207760.20240619202324.jpg?type=f640</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>블랙테일 호텔 텐트를 위한 빅 아그네스 발자국</v>
+        <v>사탕무 캠프 텐트를 위한 빅 아그네스 발자국</v>
       </c>
       <c r="B229" t="str">
         <v/>
@@ -4979,12 +4979,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F229" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4900598/49005981054.20240708225308.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4573949/45739498987.20240209155132.jpg?type=f640</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>빅 아그네스 발자국 액세서리 쉴드 4시즌 산악 텐트 3인용</v>
+        <v>빅 아그네스 코퍼 호텔 HV Ul2 액세서리 플라이</v>
       </c>
       <c r="B230" t="str">
         <v/>
@@ -4999,12 +4999,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F230" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5130342/51303425580.20241108215001.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4660130/46601305136.20240323163527.jpg?type=f640</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>빅 아그네스 사이드와인더 침낭 Long</v>
+        <v>빅 아그네스 mtn GLO 기어 로프트 액세서리</v>
       </c>
       <c r="B231" t="str">
         <v/>
@@ -5019,12 +5019,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F231" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5068907/50689073997.20241005180437.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4612448/46124488946.20240301191305.jpg?type=f640</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>사탕무 캠프 텐트를 위한 빅 아그네스 발자국</v>
+        <v>빅 아그네스 기어 로프트 텐트 액세서리</v>
       </c>
       <c r="B232" t="str">
         <v/>
@@ -5039,12 +5039,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F232" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4573949/45739498987.20240209155132.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4521571/45215719047.20240112221734.jpg?type=f640</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>빅 아그네스 코퍼 호텔 HV Ul2 액세서리 플라이</v>
+        <v>플라이 크릭 초경량 텐트를 위한 빅 아그네스 발자국</v>
       </c>
       <c r="B233" t="str">
         <v/>
@@ -5059,12 +5059,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F233" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4660130/46601305136.20240323163527.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5306270/53062701185.20250217234720.jpg?type=f640</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>빅 아그네스 mtn GLO 기어 로프트 액세서리</v>
+        <v>방수포 빅아그네스 쉴드2 전용 그라운드시트 타포린 풋프린트 천막 캠핑 PE 주황 방수포</v>
       </c>
       <c r="B234" t="str">
         <v/>
@@ -5079,12 +5079,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F234" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4612448/46124488946.20240301191305.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5182887/51828876895.20241208185221.jpg?type=f640</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>빅 아그네스 침낭 라이너 플리스 82</v>
+        <v>빅 아그네스 유니섹스 C 바 2인용 텐트 발자국 2P</v>
       </c>
       <c r="B235" t="str">
         <v/>
@@ -5099,12 +5099,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F235" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4855220/48552207760.20240619202324.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5332030/53320303395.20250303231537.jpg?type=f640</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>플라이 크릭 초경량 텐트를 위한 빅 아그네스 발자국</v>
+        <v>플라이 크릭 HV 카본 시리즈 텐트를 위한 빅 아그네스 발자국 2 Person</v>
       </c>
       <c r="B236" t="str">
         <v/>
@@ -5119,12 +5119,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F236" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5306270/53062701185.20250217234720.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_4601567/46015679425.20240225200850.jpg?type=f640</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>빅 아그네스 기어 로프트 텐트 액세서리</v>
+        <v>빅 아그네스 기어 로프트 텐트 액세서리 Trapezoid</v>
       </c>
       <c r="B237" t="str">
         <v/>
@@ -5139,12 +5139,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F237" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4521571/45215719047.20240112221734.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5343309/53433094591.20250308235640.jpg?type=f640</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>빅 아그네스 구리 스퍼 HV UL 시리즈 MTnGLO 발자국</v>
+        <v>빅 아그네스 캠프 UL 3 메쉬 이너 텐트</v>
       </c>
       <c r="B238" t="str">
         <v/>
@@ -5159,12 +5159,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F238" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5290976/52909763031.20250209203106.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5335474/53354741108.20250304215847.jpg?type=f640</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>방수포 빅아그네스 쉴드2 전용 그라운드시트 타포린 풋프린트 천막 캠핑 PE 주황 방수포</v>
+        <v>빅 아그네스 MTNGLO 텐트 캠프 조명</v>
       </c>
       <c r="B239" t="str">
         <v/>
@@ -5179,12 +5179,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F239" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5182887/51828876895.20241208185221.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5332048/53320480946.20250304005523.jpg?type=f640</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>빅 아그네스 유니섹스 C 바 2인용 텐트 발자국 2P</v>
+        <v>빅 아그네스 스파이서 피크 텐트</v>
       </c>
       <c r="B240" t="str">
         <v/>
@@ -5199,12 +5199,12 @@
         <v>빅아그네스</v>
       </c>
       <c r="F240" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_5332030/53320303395.20250303231537.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5332028/53320286605.20250303230601.jpg?type=f640</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>플라이 크릭 HV 카본 시리즈 텐트를 위한 빅 아그네스 발자국 2 Person</v>
+        <v>빅 아그네스 텐트 바닥 보호대 58 in</v>
       </c>
       <c r="B241" t="str">
         <v/>
@@ -5219,12 +5219,2492 @@
         <v>빅아그네스</v>
       </c>
       <c r="F241" t="str">
-        <v>https://shopping-phinf.pstatic.net/main_4601567/46015679425.20240225200850.jpg?type=f140</v>
+        <v>https://shopping-phinf.pstatic.net/main_5330474/53304749715.20250303004311.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>빅 아그네스 배틀 마운틴 3 풋프린트</v>
+      </c>
+      <c r="B242" t="str">
+        <v/>
+      </c>
+      <c r="C242" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D242" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E242" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F242" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5330464/53304640840.20250302234042.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>빅 아그네스 쓰리 와이어 바이비</v>
+      </c>
+      <c r="B243" t="str">
+        <v/>
+      </c>
+      <c r="C243" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D243" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E243" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F243" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5328928/53289286218.20250302011715.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>타이거 월 UL mtnGLO 플래티넘용 빅 아그네스 액세서리 풋프린트</v>
+      </c>
+      <c r="B244" t="str">
+        <v/>
+      </c>
+      <c r="C244" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D244" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E244" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F244" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4736656/47366567775.20240427153934.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>구리 스퍼 시리즈 텐트용 빅 아그네스 발자국 플래티넘 2p</v>
+      </c>
+      <c r="B245" t="str">
+        <v/>
+      </c>
+      <c r="C245" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D245" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E245" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F245" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4572766/45727660393.20240208190942.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>빅 아그네스 구스네스트 코트 싱글 와이드 액세서리 커버</v>
+      </c>
+      <c r="B246" t="str">
+        <v/>
+      </c>
+      <c r="C246" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D246" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E246" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F246" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4634318/46343184271.20240312221102.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>빅 아그네스 힌먼 폼 코어 슬리핑 패드 레귤러 5 Regular 5</v>
+      </c>
+      <c r="B247" t="str">
+        <v/>
+      </c>
+      <c r="C247" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D247" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E247" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F247" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4690571/46905713724.20240406201213.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>빅아그네스 캠프 5 풋프린트 텐트 671063</v>
+      </c>
+      <c r="B248" t="str">
+        <v/>
+      </c>
+      <c r="C248" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D248" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E248" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F248" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4699679/46996795595.20240411201011.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>시드하우스 시리즈 텐트를 위한 빅 아그네스 발자국</v>
+      </c>
+      <c r="B249" t="str">
+        <v/>
+      </c>
+      <c r="C249" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D249" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E249" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F249" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4548019/45480196105.20240126212940.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Big Agnes 빅 아그네스 여성 썬독 45L 백팩 밤샘 하이킹 상어</v>
+      </c>
+      <c r="B250" t="str">
+        <v/>
+      </c>
+      <c r="C250" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D250" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E250" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F250" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4444343/44443438766.20231205145050.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>빅 아그네스 패링턴 경량 합성 침낭</v>
+      </c>
+      <c r="B251" t="str">
+        <v/>
+      </c>
+      <c r="C251" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D251" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E251" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F251" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5307796/53077963458.20250219011856.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>빅 아그네스 기어 로프 텐트 액세서리</v>
+      </c>
+      <c r="B252" t="str">
+        <v/>
+      </c>
+      <c r="C252" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D252" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E252" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F252" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5132981/51329819549.20241110190110.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>빅 아그네스 발자국 플라이 크릭 HV UL1 자전거 포장 텐트 1인용</v>
+      </c>
+      <c r="B253" t="str">
+        <v/>
+      </c>
+      <c r="C253" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D253" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E253" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F253" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4660227/46602273519.20240323175036.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>타이거 월 카본 시리즈 텐트를 위한 빅 아그네스 발자국 3 Person</v>
+      </c>
+      <c r="B254" t="str">
+        <v/>
+      </c>
+      <c r="C254" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D254" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E254" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F254" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4575547/45755471170.20240210164915.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>빅 아그네스 사이드와인더 캠프 20 파이어라인 침낭</v>
+      </c>
+      <c r="B255" t="str">
+        <v/>
+      </c>
+      <c r="C255" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D255" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E255" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F255" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5339680/53396801680.20250307000229.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>빅 아그네스 액세서리 백팩킹 타프 폴스카우트 2 플래티넘 텐트용</v>
+      </c>
+      <c r="B256" t="str">
+        <v/>
+      </c>
+      <c r="C256" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D256" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E256" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F256" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5316525/53165250369.20250222232605.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>빅 아그네스 침낭 라이너 - 플리스 82</v>
+      </c>
+      <c r="B257" t="str">
+        <v/>
+      </c>
+      <c r="C257" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D257" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E257" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F257" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5081235/50812358333.20241013002638.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>빅 아그네스 풋프린트 블랙테일 4</v>
+      </c>
+      <c r="B258" t="str">
+        <v/>
+      </c>
+      <c r="C258" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D258" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E258" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F258" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4171543/41715433867.20230806151938.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>빅 아그네스 웨지 침낭 익스팬더</v>
+      </c>
+      <c r="B259" t="str">
+        <v/>
+      </c>
+      <c r="C259" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D259" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E259" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F259" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4650132/46501326207.20240319120913.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>빅 아그네스 기어 로프트 - 스퀘어</v>
+      </c>
+      <c r="B260" t="str">
+        <v/>
+      </c>
+      <c r="C260" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D260" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E260" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F260" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4677710/46777101358.20240331205525.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>빅 아그네스 솔트 크릭 SL3 공간</v>
+      </c>
+      <c r="B261" t="str">
+        <v/>
+      </c>
+      <c r="C261" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D261" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E261" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F261" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4658236/46582369639.20240322205932.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>빅 아그네스 사이드와인더 캠프 침낭 Long</v>
+      </c>
+      <c r="B262" t="str">
+        <v/>
+      </c>
+      <c r="C262" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D262" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E262" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F262" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5022672/50226729445.20240908194330.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>빅 아그네스 쓰리 와이어 바이비 Hooped</v>
+      </c>
+      <c r="B263" t="str">
+        <v/>
+      </c>
+      <c r="C263" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D263" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E263" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F263" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4549855/45498555940.20240127190637.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>빅 아그네스 압축 재료 자루</v>
+      </c>
+      <c r="B264" t="str">
+        <v/>
+      </c>
+      <c r="C264" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D264" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E264" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F264" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4962559/49625592877.20240805195205.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>블랙테일 호텔 텐트를 위한 빅 아그네스 발자국</v>
+      </c>
+      <c r="B265" t="str">
+        <v/>
+      </c>
+      <c r="C265" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D265" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E265" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F265" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5319541/53195415647.20250224212704.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>빅 아그네스 코퍼 스퍼 HV UL 초경량 백패킹 텐트</v>
+      </c>
+      <c r="B266" t="str">
+        <v/>
+      </c>
+      <c r="C266" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D266" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E266" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F266" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5317763/53177639109.20250224011422.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>맥아웃도어 빅아그네스 가드스테이션8 그라운드시트</v>
+      </c>
+      <c r="B267" t="str">
+        <v/>
+      </c>
+      <c r="C267" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D267" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E267" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F267" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4628921/46289219984.20240309190923.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>빅 아그네스 래피드 단열 수면 패드 쁘띠 20X66</v>
+      </c>
+      <c r="B268" t="str">
+        <v/>
+      </c>
+      <c r="C268" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D268" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E268" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F268" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5258114/52581141890.20250120201634.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>빅 아그네스 캠프 UL 타프의 발자국 다크 올리브 3인용</v>
+      </c>
+      <c r="B269" t="str">
+        <v/>
+      </c>
+      <c r="C269" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D269" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E269" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F269" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5138706/51387066582.20241113211310.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>풋프린트 천막 전용 그라운드시트 빅 아그네스 기어 로프트 텐트 액세서리 Wall 1개</v>
+      </c>
+      <c r="B270" t="str">
+        <v/>
+      </c>
+      <c r="C270" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D270" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E270" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F270" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5282736/52827369768.20250205224944.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>벙커 하우스 텐트를 위한 빅 아그네스 발자국</v>
+      </c>
+      <c r="B271" t="str">
+        <v/>
+      </c>
+      <c r="C271" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D271" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E271" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F271" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5254153/52541533514.20250117203415.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>파이어라인 맥스 단열재가 포함된 빅 아그네스 에코 파크 합성 침낭</v>
+      </c>
+      <c r="B272" t="str">
+        <v/>
+      </c>
+      <c r="C272" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D272" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E272" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F272" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4603800/46038003952.20240226214742.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>빅 아그네스 구리 스퍼 HV UL 시리즈 MTnGLO 발자국</v>
+      </c>
+      <c r="B273" t="str">
+        <v/>
+      </c>
+      <c r="C273" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D273" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E273" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F273" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5290976/52909763031.20250209203106.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>빅 아그네스 우드척 캠프 테이블</v>
+      </c>
+      <c r="B274" t="str">
+        <v/>
+      </c>
+      <c r="C274" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D274" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E274" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F274" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5229753/52297536803.20250105203044.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>빅 아그네스 식스 안락의자 Asphalt</v>
+      </c>
+      <c r="B275" t="str">
+        <v/>
+      </c>
+      <c r="C275" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D275" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E275" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F275" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5228580/52285803893.20250104231242.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>타이거 월 플래티넘 백패킹 텐트를 위한 빅 아그네스 발자국 3 Person</v>
+      </c>
+      <c r="B276" t="str">
+        <v/>
+      </c>
+      <c r="C276" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D276" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E276" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F276" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5304351/53043510361.20250216234906.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>타이거 월 UL mtnGLO 플래티넘용 빅 아그네스 액세서리 풋프린트</v>
+      </c>
+      <c r="B277" t="str">
+        <v/>
+      </c>
+      <c r="C277" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D277" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E277" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F277" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4296838/42968381737.20231001204921.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>구리 스퍼 시리즈 텐트를 위한 빅 아그네스 발자국 탐험 3p</v>
+      </c>
+      <c r="B278" t="str">
+        <v/>
+      </c>
+      <c r="C278" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D278" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E278" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F278" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4577993/45779931919.20240212172434.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>캠핑 침낭 빅 아그네스 토치라이트 캠프 Long Left</v>
+      </c>
+      <c r="B279" t="str">
+        <v/>
+      </c>
+      <c r="C279" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D279" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E279" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F279" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4633882/46338823567.20240312171304.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>빅 아그네스 크래그 레이크 SL2 풋프린트 텐트</v>
+      </c>
+      <c r="B280" t="str">
+        <v/>
+      </c>
+      <c r="C280" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D280" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E280" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F280" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4670678/46706783853.20240328221701.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>빅 아그네스 구즈네스트 2층 풍선 유아용 침대</v>
+      </c>
+      <c r="B281" t="str">
+        <v/>
+      </c>
+      <c r="C281" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="D281" t="str">
+        <v>furniture</v>
+      </c>
+      <c r="E281" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F281" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4755966/47559668238.20240507220556.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>빅 아그네스 mtnGLO LED 텐트 캠핑 조명 원 사이즈</v>
+      </c>
+      <c r="B282" t="str">
+        <v/>
+      </c>
+      <c r="C282" t="str">
+        <v>lantern</v>
+      </c>
+      <c r="D282" t="str">
+        <v>lantern</v>
+      </c>
+      <c r="E282" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F282" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4802619/48026197308.20240528180058.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>빅 아그네스 다이아몬드 파크 600 다운텍 침낭 0 Degree</v>
+      </c>
+      <c r="B283" t="str">
+        <v/>
+      </c>
+      <c r="C283" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D283" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E283" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F283" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4681317/46813173301.20240402195855.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>배틀 마운틴 시리즈 텐트를 위한 빅 아그네스 발자국</v>
+      </c>
+      <c r="B284" t="str">
+        <v/>
+      </c>
+      <c r="C284" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D284" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E284" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F284" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4752732/47527326820.20240505212906.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>빅 아그네스 스터프 자루 Tangelo 30L 1개</v>
+      </c>
+      <c r="B285" t="str">
+        <v/>
+      </c>
+      <c r="C285" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D285" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E285" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F285" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4751278/47512789725.20240504212743.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>빅 아그네스 mtn GLO 기어 로프트 액세서리 Triangle 1개</v>
+      </c>
+      <c r="B286" t="str">
+        <v/>
+      </c>
+      <c r="C286" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D286" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E286" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F286" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5306275/53062753950.20250218001327.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>타이거 월 카본 시리즈 텐트를 위한 빅 아그네스 발자국 2 Person</v>
+      </c>
+      <c r="B287" t="str">
+        <v/>
+      </c>
+      <c r="C287" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D287" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E287" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F287" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4601303/46013032340.20240225154457.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>빅 아그네스 록시 앤 3N1 15 650 다운텍 침낭 - 여성용 Long</v>
+      </c>
+      <c r="B288" t="str">
+        <v/>
+      </c>
+      <c r="C288" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D288" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E288" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F288" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5331941/53319414789.20250303194958.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>빅 아그네스 플라이 크릭 HV UL2 바이크팩 솔루션 염료 텐트</v>
+      </c>
+      <c r="B289" t="str">
+        <v/>
+      </c>
+      <c r="C289" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D289" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E289" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F289" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5330451/53304518665.20250302222851.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>빅 아그네스 먼지 단검 UL 텐트 말뚝 6</v>
+      </c>
+      <c r="B290" t="str">
+        <v/>
+      </c>
+      <c r="C290" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D290" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E290" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F290" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5147091/51470919479.20241118233249.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>빅 아그네스 타이거 월 텐트 풋프린트 3-Person</v>
+      </c>
+      <c r="B291" t="str">
+        <v/>
+      </c>
+      <c r="C291" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D291" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E291" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F291" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5268885/52688852659.20250127230446.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>빅 아그네스 스타 파이어 UL 850 다운텍 침낭 20도 길이</v>
+      </c>
+      <c r="B292" t="str">
+        <v/>
+      </c>
+      <c r="C292" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D292" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E292" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F292" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5310313/53103133314.20250219232725.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>빅 아그네스 여성용 토치라이트 UL 익스펜더블 다운 미라 침낭 Petite</v>
+      </c>
+      <c r="B293" t="str">
+        <v/>
+      </c>
+      <c r="C293" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D293" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E293" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F293" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5307802/53078025310.20250219012942.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>풋프린트 텐트 그라운드시트 천막 타이거 월 UL 초경량 텐트를 위한 빅 아그네스 발자국</v>
+      </c>
+      <c r="B294" t="str">
+        <v/>
+      </c>
+      <c r="C294" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D294" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E294" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F294" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5287732/52877325404.20250208003031.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>빅 아그네스 타이거 월 카본 시리즈 발자국</v>
+      </c>
+      <c r="B295" t="str">
+        <v/>
+      </c>
+      <c r="C295" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D295" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E295" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F295" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5066951/50669516204.20241005004045.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>빅아그네스 기어 로프트-TRAPEZOID ESJXU00508</v>
+      </c>
+      <c r="B296" t="str">
+        <v/>
+      </c>
+      <c r="C296" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D296" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E296" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F296" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2596955/25969551242.20230131025526.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>빅 아그네스 스카이라인 UL 초경량 백패킹 가구 스툴</v>
+      </c>
+      <c r="B297" t="str">
+        <v/>
+      </c>
+      <c r="C297" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D297" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E297" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F297" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4660436/46604363553.20240323214338.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>빅아그네스 슬리핑 백 라이너 - FLEECE</v>
+      </c>
+      <c r="B298" t="str">
+        <v/>
+      </c>
+      <c r="C298" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D298" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E298" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F298" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3449338/34493382071.20220905194704.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>빅 아그네스 스터프 자루 43L</v>
+      </c>
+      <c r="B299" t="str">
+        <v/>
+      </c>
+      <c r="C299" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D299" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E299" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F299" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4549902/45499029304.20240127195131.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>빅아그네스 기어 로프트 - LARGE TRAPEZOID ESJXU00510</v>
+      </c>
+      <c r="B300" t="str">
+        <v/>
+      </c>
+      <c r="C300" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D300" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E300" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F300" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2214347/22143473009.20200308145722.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Big Agnes빅 아그네스 여성 사이드와인더 침낭 Petite</v>
+      </c>
+      <c r="B301" t="str">
+        <v/>
+      </c>
+      <c r="C301" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D301" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E301" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F301" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4916282/49162829200.20240715224535.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>플라이 크릭 HV 카본 시리즈 텐트를 위한 빅 아그네스 발자국 1인용</v>
+      </c>
+      <c r="B302" t="str">
+        <v/>
+      </c>
+      <c r="C302" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D302" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E302" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F302" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4547740/45477400986.20240126175248.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>빅 아그네스 힌먼 폼 코어 슬리핑 패드 레귤러 5</v>
+      </c>
+      <c r="B303" t="str">
+        <v/>
+      </c>
+      <c r="C303" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D303" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E303" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F303" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5188503/51885030714.20241211222231.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Big Agnes빅아그네스 스타 파이어 UL 850 다운텍 침낭 Long</v>
+      </c>
+      <c r="B304" t="str">
+        <v/>
+      </c>
+      <c r="C304" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D304" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E304" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F304" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5131693/51316937877.20241109213911.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>빅아그네스 BIG AGNES 6 텐트팩 6개세트 6 TENT STAKES PACK OF 6</v>
+      </c>
+      <c r="B305" t="str">
+        <v/>
+      </c>
+      <c r="C305" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D305" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E305" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F305" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2357798/23577989278.20200725221751.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>빅아그네스 BIG AGNES 풋프린트 카퍼스퍼 HV UL3 LONG</v>
+      </c>
+      <c r="B306" t="str">
+        <v/>
+      </c>
+      <c r="C306" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D306" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E306" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F306" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3652392/36523922441.20221214200729.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>방수포 빅아그네스 카퍼스퍼 HV UL3 LONG 전용 그라운드시트 타포린</v>
+      </c>
+      <c r="B307" t="str">
+        <v/>
+      </c>
+      <c r="C307" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D307" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E307" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F307" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5180234/51802346931.20241207005928.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>빅 아그네스 여성용 썬독 45L 백팩으로 밤샘 하이킹을 즐길 수 있습니다</v>
+      </c>
+      <c r="B308" t="str">
+        <v/>
+      </c>
+      <c r="C308" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D308" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E308" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F308" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5307788/53077886958.20250219004121.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>맥아웃도어 빅아그네스 가드스테이션8 그라운드시트 BA-GS8G</v>
+      </c>
+      <c r="B309" t="str">
+        <v/>
+      </c>
+      <c r="C309" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D309" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E309" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F309" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5307768/53077683324.20250219162220.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>빅 아그네스 발자국 액세서리 실드 4계절 등산 텐트 3인용</v>
+      </c>
+      <c r="B310" t="str">
+        <v/>
+      </c>
+      <c r="C310" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D310" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E310" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F310" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4650856/46508562310.20240319190403.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>블랙테일 호텔 자전거 포장 텐트를 위한 빅 아그네스 발자국</v>
+      </c>
+      <c r="B311" t="str">
+        <v/>
+      </c>
+      <c r="C311" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D311" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E311" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F311" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5217824/52178248118.20241230003801.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>빅 아그네스 V Notch Ul Primaloft 아웃도어 침낭 캠핑 트레킹 등산 23유로</v>
+      </c>
+      <c r="B312" t="str">
+        <v/>
+      </c>
+      <c r="C312" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D312" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E312" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F312" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5280304/52803040259.20250204213747.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>빅아그네스 블랙테일 2 호텔 풋프린트 텐트 단일사이즈 713951</v>
+      </c>
+      <c r="B313" t="str">
+        <v/>
+      </c>
+      <c r="C313" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D313" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E313" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F313" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5101820/51018202488.20241024200012.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>빅 아그네스 블랙테일 호텔 배낭 캠핑 텐트 3 Person</v>
+      </c>
+      <c r="B314" t="str">
+        <v/>
+      </c>
+      <c r="C314" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D314" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E314" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F314" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4660130/46601303942.20240323163316.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>빅 아그네스 모루 뿔 650 다운텍 침낭 Long Left Zip</v>
+      </c>
+      <c r="B315" t="str">
+        <v/>
+      </c>
+      <c r="C315" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D315" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E315" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F315" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4650866/46508665747.20240319191914.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>빅 아그네스 힌만 폼 코어 슬리핑 패드 와이드 롱 5 Wide Long 5</v>
+      </c>
+      <c r="B316" t="str">
+        <v/>
+      </c>
+      <c r="C316" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D316" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E316" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F316" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4738100/47381009053.20240428162947.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>맥아웃도어 빅아그네스 플라잉다이아몬드8P 맥풋 풋프린트 BA-FD8M</v>
+      </c>
+      <c r="B317" t="str">
+        <v/>
+      </c>
+      <c r="C317" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D317" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E317" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F317" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5310319/53103192350.20250219235814.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>방수포 빅아그네스 카퍼스퍼 HV UL 2 전용 그라운드시트 타포린 천막</v>
+      </c>
+      <c r="B318" t="str">
+        <v/>
+      </c>
+      <c r="C318" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D318" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E318" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F318" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5167725/51677250177.20241129212504.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>PE 방수포 빅아그네스 플라이크릭 HV UL1 전용 그라운드시트 타포린 풋프린트 천막 캠핑</v>
+      </c>
+      <c r="B319" t="str">
+        <v/>
+      </c>
+      <c r="C319" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D319" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E319" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F319" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5181732/51817325757.20241207223838.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>빅 아그네스 드림 아일랜드 파이어라인 에코 침낭 50 Double Wide</v>
+      </c>
+      <c r="B320" t="str">
+        <v/>
+      </c>
+      <c r="C320" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D320" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E320" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F320" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5109878/51098789517.20241029214302.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>2021년 코퍼스퍼 HVUL 바이크팩 텐트용 빅 아그네스 풋프린트 2 Person</v>
+      </c>
+      <c r="B321" t="str">
+        <v/>
+      </c>
+      <c r="C321" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D321" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E321" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F321" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4588805/45888051883.20240218172252.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>빅 아그네스 블랙테일 호텔 배낭여행 캠핑 텐트 2 Person</v>
+      </c>
+      <c r="B322" t="str">
+        <v/>
+      </c>
+      <c r="C322" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D322" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E322" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F322" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4392637/43926376134.20231109211600.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>맥아웃도어 빅아그네스 스트링릿지 2p 일체형 맥풋라이트 풋프린트 BASL135EL</v>
+      </c>
+      <c r="B323" t="str">
+        <v/>
+      </c>
+      <c r="C323" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D323" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E323" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F323" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5325197/53251975165.20250301092854.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>PE 방수포 빅아그네스 가드스테이션8 전용 그라운드시트 타포린 풋프린트 천막 캠핑</v>
+      </c>
+      <c r="B324" t="str">
+        <v/>
+      </c>
+      <c r="C324" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D324" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E324" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F324" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5343290/53432905816.20250308220730.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>빅 아그네스 주식회사 유니섹스 타이거 월 UL 1인용 텐트 발자국</v>
+      </c>
+      <c r="B325" t="str">
+        <v/>
+      </c>
+      <c r="C325" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D325" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E325" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F325" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4961000/49610003231.20240804202859.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>2021년 코퍼스퍼 HV UL 바이크팩 텐트를 위한 빅 아그네스 발자국</v>
+      </c>
+      <c r="B326" t="str">
+        <v/>
+      </c>
+      <c r="C326" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D326" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E326" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F326" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5130365/51303651928.20241108230151.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>코퍼스퍼 HV 울트라 라이트 MTnGLO 배낭형 텐트를 위한 빅 아그네스 발자국</v>
+      </c>
+      <c r="B327" t="str">
+        <v/>
+      </c>
+      <c r="C327" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D327" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E327" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F327" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4600244/46002441159.20240224212546.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>방수포 빅아그네스 플라이크릭 HV2 플래티넘 전용 그라운드시트 타포린 풋프린트 PE 방수포</v>
+      </c>
+      <c r="B328" t="str">
+        <v/>
+      </c>
+      <c r="C328" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D328" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E328" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F328" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5172207/51722078056.20241202225525.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>맥아웃도어 빅아그네스 스트링릿지 2P 이너용 맥풋 풋프린트 BAS135E</v>
+      </c>
+      <c r="B329" t="str">
+        <v/>
+      </c>
+      <c r="C329" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D329" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E329" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F329" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5015485/50154850985.20240905055859.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>202 코퍼스퍼 HVUL 바이크팩 텐트용 빅 아그네스 풋프린트 Fly Creek HV UL 1</v>
+      </c>
+      <c r="B330" t="str">
+        <v/>
+      </c>
+      <c r="C330" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D330" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E330" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F330" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4612372/46123721508.20240301182412.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>풋프린트 바닥 전용 천막 코퍼스퍼 UL 배낭여행 텐트를 위한 빅 아그네스 발자국 4 Person 1개</v>
+      </c>
+      <c r="B331" t="str">
+        <v/>
+      </c>
+      <c r="C331" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D331" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E331" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F331" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5282743/52827437728.20250205232735.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>빅아그네스 V 노치 UL 4℃ 레귤러 LEFT 침낭 ESJXU00399</v>
+      </c>
+      <c r="B332">
+        <v>987</v>
+      </c>
+      <c r="C332" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D332" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E332" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F332" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5148601/51486012622.20241119164817.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>맥아웃도어 빅아그네스 카퍼스퍼 맥풋 풋프린트 일체형 HVUL4</v>
+      </c>
+      <c r="B333" t="str">
+        <v/>
+      </c>
+      <c r="C333" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D333" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E333" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F333" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3630206/36302065804.20221205065631.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>빅아그네스 카퍼스퍼 HV UL3 백패킹 3인용 경량 텐트 Big Agnes Copper Spur HV UL - 3Person</v>
+      </c>
+      <c r="B334" t="str">
+        <v/>
+      </c>
+      <c r="C334" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D334" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E334" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F334" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5096141/50961416704.20241021205634.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>빅아그네스 카퍼스퍼 HV UL2 백패킹 2인용 경량 텐트 Big Agnes Copper Spur HV UL - 2Person</v>
+      </c>
+      <c r="B335" t="str">
+        <v/>
+      </c>
+      <c r="C335" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D335" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E335" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F335" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5096082/50960828015.20241021201338.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>빅아그네스 카퍼스퍼 HV UL3 백패킹 경량 텐트 Big Agnes Copper Spur HV UL - 3Person Oliver Green</v>
+      </c>
+      <c r="B336" t="str">
+        <v/>
+      </c>
+      <c r="C336" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D336" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E336" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F336" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5096172/50961720015.20241021232811.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>빅아그네스 카퍼스퍼 HV UL2 백패킹 경량 텐트 Big Agnes Copper Spur HV UL - 2Person Oliver Green</v>
+      </c>
+      <c r="B337" t="str">
+        <v/>
+      </c>
+      <c r="C337" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D337" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E337" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F337" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5096146/50961466995.20241021211949.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>맥아웃도어 빅아그네스 카퍼스퍼 맥풋 풋프린트 HVUL3 BA-CS3M</v>
+      </c>
+      <c r="B338" t="str">
+        <v/>
+      </c>
+      <c r="C338" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D338" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E338" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F338" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5307789/53077895364.20250219004528.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>맥아웃도어 빅아그네스 카퍼스퍼 맥풋 풋프린트 전실포함 HVUL4</v>
+      </c>
+      <c r="B339" t="str">
+        <v/>
+      </c>
+      <c r="C339" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D339" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E339" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F339" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3911006/39110067451.20230402141309.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>Big Agnes 빅 아그네스 타이거 월 초경량 텐트 자외선 솔루션 염색 원단 2 Person</v>
+      </c>
+      <c r="B340" t="str">
+        <v/>
+      </c>
+      <c r="C340" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D340" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E340" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F340" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4797441/47974419911.20240525180908.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>맥아웃도어 빅아그네스 나이트캡 맥풋 풋프린트 BA-NCM</v>
+      </c>
+      <c r="B341" t="str">
+        <v/>
+      </c>
+      <c r="C341" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D341" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E341" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F341" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5319455/53194559891.20250224201118.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>맥아웃도어 빅아그네스 카퍼스퍼 맥풋UL 풋프린트 이너용 HVUL2 C4O520300</v>
+      </c>
+      <c r="B342" t="str">
+        <v/>
+      </c>
+      <c r="C342" t="str">
+        <v/>
+      </c>
+      <c r="D342" t="str">
+        <v/>
+      </c>
+      <c r="E342" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F342" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3642894/36428942344.20221210171601.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>맥아웃도어 빅아그네스 시드하우스 3P 이너용 맥풋 풋프린트 BASH200E</v>
+      </c>
+      <c r="B343" t="str">
+        <v/>
+      </c>
+      <c r="C343" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D343" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E343" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F343" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5328881/53288812111.20250301203839.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>맥아웃도어 빅아그네스 카퍼스퍼 맥풋라이트 풋프린트 HVUL4</v>
+      </c>
+      <c r="B344" t="str">
+        <v/>
+      </c>
+      <c r="C344" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D344" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E344" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F344" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3643861/36438610855.20221211073026.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>맥아웃도어 빅아그네스 시드하우스 3p 일체형 맥풋라이트 풋프린트 BASHL200L</v>
+      </c>
+      <c r="B345" t="str">
+        <v/>
+      </c>
+      <c r="C345" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D345" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E345" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F345" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5325195/53251952533.20250228233936.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>맥아웃도어 빅아그네스 시드하우스 3p 이너용 맥풋라이트 풋프린트 BASHL200E</v>
+      </c>
+      <c r="B346" t="str">
+        <v/>
+      </c>
+      <c r="C346" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D346" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E346" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F346" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5325174/53251746950.20250227224614.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>맥아웃도어 빅아그네스 카퍼스퍼 맥풋UL 풋프린트 이너용 HVUL3</v>
+      </c>
+      <c r="B347" t="str">
+        <v/>
+      </c>
+      <c r="C347" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D347" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E347" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F347" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3633286/36332866665.20221206125552.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>Big Agnes 2021년 빅 아그네스 풋프린트 타이거 월 UL 바이크팩 텐트 3 Person</v>
+      </c>
+      <c r="B348" t="str">
+        <v/>
+      </c>
+      <c r="C348" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D348" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E348" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F348" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5217833/52178334439.20241230011208.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>방수포 빅아그네스 가드스테이션8 전용 그라운드시트 타포린 풋프린트 천막 캠핑 PE 주황 방수포</v>
+      </c>
+      <c r="B349" t="str">
+        <v/>
+      </c>
+      <c r="C349" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D349" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E349" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F349" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5176366/51763663519.20241204193426.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>방수포 빅아그네스 타이거월 UL1 솔루션다이 전용 그라운드시트 타포린 풋프린트 PE 그린 방수포</v>
+      </c>
+      <c r="B350" t="str">
+        <v/>
+      </c>
+      <c r="C350" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D350" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E350" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F350" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5170641/51706412905.20241201232737.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>방수포 빅아그네스 타이거월 UL2 솔루션다이 전용 그라운드시트 타포린 풋프린트 천막 캠핑 PE 방수포</v>
+      </c>
+      <c r="B351" t="str">
+        <v/>
+      </c>
+      <c r="C351" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D351" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E351" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F351" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5174135/51741357359.20241203232115.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Big Agnes빅 아그네스 무연탄 2030도 화선 프로 합성 충전 미라 침낭 20 Degree Womens</v>
+      </c>
+      <c r="B352" t="str">
+        <v/>
+      </c>
+      <c r="C352" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D352" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E352" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F352" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4923294/49232943134.20240719011418.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>맥아웃도어 빅아그네스 시드하우스 3P 전실포함 맥풋 풋프린트 BASH200J</v>
+      </c>
+      <c r="B353" t="str">
+        <v/>
+      </c>
+      <c r="C353" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D353" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E353" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F353" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5015372/50153721905.20240905094330.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>방수포 빅아그네스 카퍼스퍼 HV UL 3 전용 그라운드시트 타포린 풋프린트 천막 캠핑 PE 연그레이 방수포 가방</v>
+      </c>
+      <c r="B354" t="str">
+        <v/>
+      </c>
+      <c r="C354" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D354" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E354" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F354" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5176486/51764862753.20241204232308.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>빅아그네스 풋프린트 타이거 월 UL2 바이크 팩 솔루션 다이 ESLXU00004</v>
+      </c>
+      <c r="B355" t="str">
+        <v/>
+      </c>
+      <c r="C355" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D355" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E355" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F355" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4388189/43881896570.20231107205553.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>방수포 빅아그네스 카퍼스퍼 HV UL4 이너 전용 그라운드시트 타포린 풋프린트 천막 캠핑 PE 다크그레이 방수포</v>
+      </c>
+      <c r="B356" t="str">
+        <v/>
+      </c>
+      <c r="C356" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D356" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E356" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F356" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5302111/53021110035.20250215003211.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>빅아그네스 골드캠프 UL 3 메쉬 이너텐트</v>
+      </c>
+      <c r="B357">
+        <v>1020</v>
+      </c>
+      <c r="C357" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D357" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E357" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F357" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4669746/46697469618.20240328143756.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>빅아그네스 더트 대거 UL 7 5 텐트 팩 6 텐트팩 경량텐트팩 타프팩 지주핀</v>
+      </c>
+      <c r="B358" t="str">
+        <v/>
+      </c>
+      <c r="C358" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D358" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E358" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F358" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_5130342/51303420252.20241108214546.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>빅아그네스 드림 아일랜드 2℃ 50 더블와이드 ESMXU00252</v>
+      </c>
+      <c r="B359">
+        <v>1420</v>
+      </c>
+      <c r="C359" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D359" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E359" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F359" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3297964/32979644618.20220616111339.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>빅아그네스 드림 아일랜드 -7℃ 50 더블와이드 ESMXU00253</v>
+      </c>
+      <c r="B360">
+        <v>3180</v>
+      </c>
+      <c r="C360" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D360" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E360" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F360" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3297964/32979642618.20220616105327.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>빅아그네스 킹 솔로몬 2℃ 40 더블와이드 ESMXU00254</v>
+      </c>
+      <c r="B361">
+        <v>1420</v>
+      </c>
+      <c r="C361" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D361" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E361" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F361" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3297968/32979681618.20220616110841.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>빅아그네스 킹 솔로몬 -7℃ 40 더블와이드 ESMXU00255</v>
+      </c>
+      <c r="B362">
+        <v>1810</v>
+      </c>
+      <c r="C362" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D362" t="str">
+        <v>sleeping_bag</v>
+      </c>
+      <c r="E362" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F362" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3297964/32979645619.20220616110126.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>빅아그네스 웻스톤 쉘터 라지 EJTWSGLLG18</v>
+      </c>
+      <c r="B363">
+        <v>1780</v>
+      </c>
+      <c r="C363" t="str">
+        <v>big4</v>
+      </c>
+      <c r="D363" t="str">
+        <v>tent</v>
+      </c>
+      <c r="E363" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F363" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_2748922/27489222527.20210608112410.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>빅아그네스 코퍼 스퍼 Copper Spur HV UL5 풋프린트 293038</v>
+      </c>
+      <c r="B364" t="str">
+        <v/>
+      </c>
+      <c r="C364" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D364" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E364" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F364" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_3927232/39272327411.20230409215307.jpg?type=f640</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>구리 스퍼 HV 울트라 라이트 mtnGLO 배낭 텐트용 빅 아그네스 풋프린트 Hv Ul2 Hv Mtnglo</v>
+      </c>
+      <c r="B365" t="str">
+        <v/>
+      </c>
+      <c r="C365" t="str">
+        <v>etc</v>
+      </c>
+      <c r="D365" t="str">
+        <v>etc</v>
+      </c>
+      <c r="E365" t="str">
+        <v>빅아그네스</v>
+      </c>
+      <c r="F365" t="str">
+        <v>https://shopping-phinf.pstatic.net/main_4577902/45779020323.20240423233943.jpg?type=f640</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F241"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F365"/>
   </ignoredErrors>
 </worksheet>
 </file>